--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AutoBotBMCRemedy\data_driver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371E65CE-1073-492C-98C4-947D1C21DC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572D2C43-01AD-439E-B738-44E62DA8BCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1501,7 +1501,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B2" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44041</v>
+        <v>44053</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -1608,189 +1608,189 @@
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44041</v>
-      </c>
-      <c r="C3" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Legacy</v>
-      </c>
-      <c r="E3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>New Link instalation</v>
-      </c>
-      <c r="F3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>NGSNG07,NGSNG57</v>
-      </c>
-      <c r="G3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H3" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I3" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J3" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka South</v>
+        <v>0</v>
       </c>
       <c r="K3" s="31"/>
-      <c r="L3" s="31" t="str">
+      <c r="L3" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44041</v>
-      </c>
-      <c r="C4" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Operational</v>
-      </c>
-      <c r="E4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>PAT activity</v>
-      </c>
-      <c r="F4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYSDRB6,SYSDRA8</v>
-      </c>
-      <c r="G4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
-      </c>
-      <c r="J4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J4" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>0</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="L4" s="31" t="str">
+      <c r="L4" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44041</v>
-      </c>
-      <c r="C5" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C5" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
-      </c>
-      <c r="E5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v xml:space="preserve">RAU Release Udate </v>
-      </c>
-      <c r="F5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHKHL05,DHKHL74</v>
-      </c>
-      <c r="G5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J5" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>0</v>
       </c>
       <c r="K5" s="31"/>
-      <c r="L5" s="31" t="str">
+      <c r="L5" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44041</v>
-      </c>
-      <c r="C6" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
-      </c>
-      <c r="E6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Dismantle activity</v>
-      </c>
-      <c r="F6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYGWN10,SYGWN13,SYGWN05,SYGWN01,SYSDR34</v>
-      </c>
-      <c r="G6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
-      </c>
-      <c r="J6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J6" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>0</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="31" t="str">
+      <c r="L6" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572D2C43-01AD-439E-B738-44E62DA8BCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFEF20D-1932-4F0F-944A-0293D420B704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1501,7 +1501,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,48 +1608,48 @@
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="29">
+        <v>44053</v>
+      </c>
+      <c r="C3" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="30">
+        <v>KM Jiaul Islam Jibon</v>
+      </c>
+      <c r="D3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="30">
+        <v>Operational</v>
+      </c>
+      <c r="E3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="30">
+        <v xml:space="preserve">TEST </v>
+      </c>
+      <c r="F3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="30">
+        <v>MBKLR30,MBKLR27</v>
+      </c>
+      <c r="G3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K3" s="31"/>
-      <c r="L3" s="31">
+      <c r="L3" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Shahriar Mahbub</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFEF20D-1932-4F0F-944A-0293D420B704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA20AF9A-7D9C-41F9-AA3F-0AB2CDFD7A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1501,7 +1501,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,39 +1565,39 @@
       </c>
       <c r="B2" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44053</v>
+        <v>44049</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
+        <v>KM Jiaul Islam Jibon</v>
       </c>
       <c r="D2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Operational</v>
+        <v>Dhaka-Modernization</v>
       </c>
       <c r="E2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>HW _Upgrade</v>
+        <v>FE Configuration</v>
       </c>
       <c r="F2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>MBKLR30,MBKLR27</v>
+        <v>TNDDR05,TNDDR15,TNKLH15,TNKLH16,TNMDP29</v>
       </c>
       <c r="G2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
+        <v>Non-Service Effective</v>
       </c>
       <c r="H2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
+        <v>00:00 Minute</v>
       </c>
       <c r="I2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Mymensingh</v>
       </c>
       <c r="J2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Mymensingh</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="31" t="str">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B3" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44053</v>
+        <v>44049</v>
       </c>
       <c r="C3" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -1620,15 +1620,15 @@
       </c>
       <c r="D3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Operational</v>
+        <v>Dhaka-Modernization</v>
       </c>
       <c r="E3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v xml:space="preserve">TEST </v>
+        <v>FE Configuration</v>
       </c>
       <c r="F3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>MBKLR30,MBKLR27</v>
+        <v>DHMDP42,DHMDP47,DHMJH47,DHPTN16,DHPTN29,DHRMN04,DHRMN16,DHRMN26,DHRMN36</v>
       </c>
       <c r="G3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -1649,54 +1649,54 @@
       <c r="K3" s="31"/>
       <c r="L3" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Shahriar Mahbub</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="29">
+        <v>44049</v>
+      </c>
+      <c r="C4" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="30">
+        <v>KM Jiaul Islam Jibon</v>
+      </c>
+      <c r="D4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="30">
+        <v>Dhaka-Modernization</v>
+      </c>
+      <c r="E4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="30">
+        <v>FE Configuration</v>
+      </c>
+      <c r="F4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="30">
+        <v>MGGHR11,MGSBL11,MGSTR01,MNLHG02,MNLHG17,GPSDRS5,MNSDR46</v>
+      </c>
+      <c r="G4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka North</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="L4" s="31">
+      <c r="L4" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA20AF9A-7D9C-41F9-AA3F-0AB2CDFD7A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B51E97-A2CC-4178-BD97-001E493DCAD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,14 +33,6 @@
     <definedName name="Sylhet">Information!$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1501,7 +1493,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,44 +1557,44 @@
       </c>
       <c r="B2" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44049</v>
+        <v>44054</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon</v>
+        <v>Prodip Biswas</v>
       </c>
       <c r="D2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Dhaka-Modernization</v>
+        <v>L18CellAdd, Y2020</v>
       </c>
       <c r="E2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>FE Configuration</v>
+        <v>GSM &amp; RRU Swap</v>
       </c>
       <c r="F2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>TNDDR05,TNDDR15,TNKLH15,TNKLH16,TNMDP29</v>
+        <v>MBKLR17,SYBLG15,BMSDR14</v>
       </c>
       <c r="G2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
+        <v>Service Effective</v>
       </c>
       <c r="H2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
+        <v>00:30 Minute</v>
       </c>
       <c r="I2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Mymensingh</v>
+        <v>Sylhet</v>
       </c>
       <c r="J2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Mymensingh</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>Sumon Kumar Biswas</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1612,31 +1604,31 @@
       </c>
       <c r="B3" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44049</v>
+        <v>44054</v>
       </c>
       <c r="C3" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon</v>
+        <v>Md. Rashekul Islam Raju</v>
       </c>
       <c r="D3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Dhaka-Modernization</v>
+        <v>Project 964</v>
       </c>
       <c r="E3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>FE Configuration</v>
+        <v>GSM Antenna Optimization</v>
       </c>
       <c r="F3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHMDP42,DHMDP47,DHMJH47,DHPTN16,DHPTN29,DHRMN04,DHRMN16,DHRMN26,DHRMN36</v>
+        <v>DHSBB16</v>
       </c>
       <c r="G3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
+        <v>Service Effective</v>
       </c>
       <c r="H3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
+        <v>00:45 Minute</v>
       </c>
       <c r="I3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
@@ -1659,7 +1651,7 @@
       </c>
       <c r="B4" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44049</v>
+        <v>44054</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -1675,11 +1667,11 @@
       </c>
       <c r="F4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>MGGHR11,MGSBL11,MGSTR01,MNLHG02,MNLHG17,GPSDRS5,MNSDR46</v>
+        <v>TNDDR05,TNDDR15,TNKLH15,TNKLH16,TNMDP29</v>
       </c>
       <c r="G4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
+        <v>Non-Service Effective</v>
       </c>
       <c r="H4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
@@ -1687,11 +1679,11 @@
       </c>
       <c r="I4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
+        <v>Mymensingh</v>
       </c>
       <c r="J4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka North</v>
+        <v>e.co_Mymensingh</v>
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31" t="str">
@@ -1702,283 +1694,283 @@
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="29">
+        <v>44054</v>
+      </c>
+      <c r="C5" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="30">
+        <v>KM Jiaul Islam Jibon</v>
+      </c>
+      <c r="D5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
+        <v>Dhaka-Modernization</v>
+      </c>
+      <c r="E5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
+        <v>FE Configuration</v>
+      </c>
+      <c r="F5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="30">
+        <v>DHMDP42,DHMDP47,DHMJH47,DHPTN16,DHPTN29,DHRMN04,DHRMN16,DHRMN26,DHRMN36</v>
+      </c>
+      <c r="G5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K5" s="31"/>
-      <c r="L5" s="31">
+      <c r="L5" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="29">
+        <v>44054</v>
+      </c>
+      <c r="C6" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="30">
+        <v>KM Jiaul Islam Jibon</v>
+      </c>
+      <c r="D6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="30">
+        <v>Dhaka-Modernization</v>
+      </c>
+      <c r="E6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
+        <v>FE Configuration</v>
+      </c>
+      <c r="F6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="30">
+        <v>MGGHR11,MGSBL11,MGSTR01,MNLHG02,MNLHG17,GPSDRS5,MNSDR46</v>
+      </c>
+      <c r="G6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka North</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="31">
+      <c r="L6" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="29">
+        <v>44054</v>
+      </c>
+      <c r="C7" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="30">
+        <v>KM Jiaul Islam Jibon</v>
+      </c>
+      <c r="D7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
+        <v xml:space="preserve">CEP_OEPX </v>
+      </c>
+      <c r="E7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
+        <v>FE Configuration &amp; GE Shifting</v>
+      </c>
+      <c r="F7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="30">
+        <v>DHDHN07,DHRMN09</v>
+      </c>
+      <c r="G7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="31">
+      <c r="L7" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="29">
+        <v>44054</v>
+      </c>
+      <c r="C8" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="30">
+        <v>Padma_Colo</v>
+      </c>
+      <c r="E8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
+        <v>Rectification</v>
+      </c>
+      <c r="F8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="30">
+        <v>HGBNC04,HGNBG05</v>
+      </c>
+      <c r="G8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
+        <v>Sylhet</v>
+      </c>
+      <c r="J8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K8" s="31"/>
-      <c r="L8" s="31">
+      <c r="L8" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="29">
+        <v>44054</v>
+      </c>
+      <c r="C9" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
+        <v>DHAKA_MODERNIZATION</v>
+      </c>
+      <c r="E9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
+        <v>Rectification</v>
+      </c>
+      <c r="F9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
+        <v>TNGPL01,TNGTL27</v>
+      </c>
+      <c r="G9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="30">
+        <v>Mymensingh</v>
+      </c>
+      <c r="J9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Mymensingh</v>
       </c>
       <c r="K9" s="31"/>
-      <c r="L9" s="31">
+      <c r="L9" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="29">
+        <v>44054</v>
+      </c>
+      <c r="C10" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
+        <v>NCCD AbisoIP</v>
+      </c>
+      <c r="E10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
+        <v>Dismantle activity</v>
+      </c>
+      <c r="F10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
+        <v>SYGWN10,SYGWN13,SYGWN01,SYBNB02,SYSDR34,SYSDR08,SYSDR07,SYSDR13,SYSDR86,SYSDR43</v>
+      </c>
+      <c r="G10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
+        <v>Sylhet</v>
+      </c>
+      <c r="J10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K10" s="31"/>
-      <c r="L10" s="31">
+      <c r="L10" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B51E97-A2CC-4178-BD97-001E493DCAD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6BEF3E-6153-4147-86B3-A1E12F30BA57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1493,7 +1493,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,27 +1561,27 @@
       </c>
       <c r="C2" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Prodip Biswas</v>
+        <v>Md. Masudur Rahman</v>
       </c>
       <c r="D2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>L18CellAdd, Y2020</v>
+        <v>NCCD AbisoIP</v>
       </c>
       <c r="E2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>GSM &amp; RRU Swap</v>
+        <v>Dismantle activity</v>
       </c>
       <c r="F2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>MBKLR17,SYBLG15,BMSDR14</v>
+        <v>SYSDRD4,SYDKS28,SYGLP01,SYSDR86,SYSDR43,SYSDRC2</v>
       </c>
       <c r="G2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
+        <v>Non-Service Effective</v>
       </c>
       <c r="H2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
+        <v>00:00 Minute</v>
       </c>
       <c r="I2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
@@ -1594,383 +1594,383 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Sumon Kumar Biswas</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44054</v>
-      </c>
-      <c r="C3" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Rashekul Islam Raju</v>
-      </c>
-      <c r="D3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Project 964</v>
-      </c>
-      <c r="E3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>GSM Antenna Optimization</v>
-      </c>
-      <c r="F3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHSBB16</v>
-      </c>
-      <c r="G3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H3" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:45 Minute</v>
-      </c>
-      <c r="I3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I3" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J3" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>0</v>
       </c>
       <c r="K3" s="31"/>
-      <c r="L3" s="31" t="str">
+      <c r="L3" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44054</v>
-      </c>
-      <c r="C4" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon</v>
-      </c>
-      <c r="D4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Dhaka-Modernization</v>
-      </c>
-      <c r="E4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>FE Configuration</v>
-      </c>
-      <c r="F4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>TNDDR05,TNDDR15,TNKLH15,TNKLH16,TNMDP29</v>
-      </c>
-      <c r="G4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Mymensingh</v>
-      </c>
-      <c r="J4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J4" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Mymensingh</v>
+        <v>0</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="L4" s="31" t="str">
+      <c r="L4" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44054</v>
-      </c>
-      <c r="C5" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C5" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon</v>
-      </c>
-      <c r="D5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Dhaka-Modernization</v>
-      </c>
-      <c r="E5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>FE Configuration</v>
-      </c>
-      <c r="F5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHMDP42,DHMDP47,DHMJH47,DHPTN16,DHPTN29,DHRMN04,DHRMN16,DHRMN26,DHRMN36</v>
-      </c>
-      <c r="G5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J5" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>0</v>
       </c>
       <c r="K5" s="31"/>
-      <c r="L5" s="31" t="str">
+      <c r="L5" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44054</v>
-      </c>
-      <c r="C6" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon</v>
-      </c>
-      <c r="D6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Dhaka-Modernization</v>
-      </c>
-      <c r="E6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>FE Configuration</v>
-      </c>
-      <c r="F6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>MGGHR11,MGSBL11,MGSTR01,MNLHG02,MNLHG17,GPSDRS5,MNSDR46</v>
-      </c>
-      <c r="G6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J6" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka North</v>
+        <v>0</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="31" t="str">
+      <c r="L6" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44054</v>
-      </c>
-      <c r="C7" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon</v>
-      </c>
-      <c r="D7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v xml:space="preserve">CEP_OEPX </v>
-      </c>
-      <c r="E7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>FE Configuration &amp; GE Shifting</v>
-      </c>
-      <c r="F7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHDHN07,DHRMN09</v>
-      </c>
-      <c r="G7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>0</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="31" t="str">
+      <c r="L7" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44054</v>
-      </c>
-      <c r="C8" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
-      </c>
-      <c r="E8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Rectification</v>
-      </c>
-      <c r="F8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>HGBNC04,HGNBG05</v>
-      </c>
-      <c r="G8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G8" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I8" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
-      </c>
-      <c r="J8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J8" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>0</v>
       </c>
       <c r="K8" s="31"/>
-      <c r="L8" s="31" t="str">
+      <c r="L8" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44054</v>
-      </c>
-      <c r="C9" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
-      </c>
-      <c r="E9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Rectification</v>
-      </c>
-      <c r="F9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>TNGPL01,TNGTL27</v>
-      </c>
-      <c r="G9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Mymensingh</v>
-      </c>
-      <c r="J9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J9" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Mymensingh</v>
+        <v>0</v>
       </c>
       <c r="K9" s="31"/>
-      <c r="L9" s="31" t="str">
+      <c r="L9" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44054</v>
-      </c>
-      <c r="C10" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C10" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
-      </c>
-      <c r="E10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Dismantle activity</v>
-      </c>
-      <c r="F10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYGWN10,SYGWN13,SYGWN01,SYBNB02,SYSDR34,SYSDR08,SYSDR07,SYSDR13,SYSDR86,SYSDR43</v>
-      </c>
-      <c r="G10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G10" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I10" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
-      </c>
-      <c r="J10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>0</v>
       </c>
       <c r="K10" s="31"/>
-      <c r="L10" s="31" t="str">
+      <c r="L10" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6BEF3E-6153-4147-86B3-A1E12F30BA57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAFA140-D543-46EE-B33D-B472B437AE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B2" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAFA140-D543-46EE-B33D-B472B437AE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC4B5EE-6996-422A-BE84-C81ECDA2DFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change_List" sheetId="1" r:id="rId1"/>
@@ -1493,7 +1493,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,11 +1557,11 @@
       </c>
       <c r="B2" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44055</v>
+        <v>44059</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
+        <v>KM Jiaul Islam Jibon</v>
       </c>
       <c r="D2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
@@ -1569,11 +1569,11 @@
       </c>
       <c r="E2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Dismantle activity</v>
+        <v>E1 Deletion</v>
       </c>
       <c r="F2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYSDRD4,SYDKS28,SYGLP01,SYSDR86,SYSDR43,SYSDRC2</v>
+        <v>SNSDR01,SNSDR03,SYBLG05,SYBNB20,SYBNB40,SYBSW07,SYKNG02,SYSDRA7,SNSDR22,SNSDR25</v>
       </c>
       <c r="G2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC4B5EE-6996-422A-BE84-C81ECDA2DFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D171A97-D89F-483A-8ACF-DF07BA3710A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1493,7 +1493,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,31 +1557,31 @@
       </c>
       <c r="B2" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44059</v>
+        <v>44073</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon</v>
+        <v>Md. Shahadat Hossain</v>
       </c>
       <c r="D2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
+        <v>Padma Colocation Project</v>
       </c>
       <c r="E2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>E1 Deletion</v>
+        <v>CPRI Cable &amp; RRU Swap 1/1</v>
       </c>
       <c r="F2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SNSDR01,SNSDR03,SYBLG05,SYBNB20,SYBNB40,SYBSW07,SYKNG02,SYSDRA7,SNSDR22,SNSDR25</v>
+        <v>         SNDRI02,SNDRI05,SNDRI06,SNDRI07,SNDRI10</v>
       </c>
       <c r="G2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
+        <v>Service Effective</v>
       </c>
       <c r="H2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
+        <v>04:00 Hour</v>
       </c>
       <c r="I2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D171A97-D89F-483A-8ACF-DF07BA3710A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32C636F-F28C-4CD6-9F6B-070E322BFD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="1215" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change_List" sheetId="1" r:id="rId1"/>
@@ -1493,7 +1493,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,39 +1557,39 @@
       </c>
       <c r="B2" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Shahadat Hossain</v>
+        <v>Md. Masudur Rahman</v>
       </c>
       <c r="D2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma Colocation Project</v>
+        <v>DHAKA_MODERNIZATION</v>
       </c>
       <c r="E2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>CPRI Cable &amp; RRU Swap 1/1</v>
+        <v>New Link installation</v>
       </c>
       <c r="F2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>         SNDRI02,SNDRI05,SNDRI06,SNDRI07,SNDRI10</v>
+        <v>MGSNG08,DHKGNT1</v>
       </c>
       <c r="G2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
+        <v>Non-Service Effective</v>
       </c>
       <c r="H2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>04:00 Hour</v>
+        <v>00:00 Minute</v>
       </c>
       <c r="I2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Dhaka</v>
       </c>
       <c r="J2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Dhaka North</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="31" t="str">
@@ -1600,189 +1600,189 @@
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="29">
+        <v>44074</v>
+      </c>
+      <c r="C3" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="30">
+        <v>CEP</v>
+      </c>
+      <c r="E3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="30">
+        <v>New Link installation</v>
+      </c>
+      <c r="F3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="30">
+        <v>DHBDDA7,DHTEJ15,DHTEJ07</v>
+      </c>
+      <c r="G3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K3" s="31"/>
-      <c r="L3" s="31">
+      <c r="L3" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="29">
+        <v>44074</v>
+      </c>
+      <c r="C4" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="30">
+        <v>Padma_Colo</v>
+      </c>
+      <c r="E4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="30">
+        <v>New Link installation</v>
+      </c>
+      <c r="F4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="30">
+        <v>BHCFN02,BHCFN26,BHLMN01,BHLMN15</v>
+      </c>
+      <c r="G4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
+        <v>Barisal</v>
+      </c>
+      <c r="J4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Barisal</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="L4" s="31">
+      <c r="L4" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="29">
+        <v>44074</v>
+      </c>
+      <c r="C5" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
+        <v>NCCD AbisoIP</v>
+      </c>
+      <c r="E5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
+        <v>Traffic Check for Traffic shiftng</v>
+      </c>
+      <c r="F5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="30">
+        <v>HGNBG28,HGNBG08</v>
+      </c>
+      <c r="G5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
+        <v>Sylhet</v>
+      </c>
+      <c r="J5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K5" s="31"/>
-      <c r="L5" s="31">
+      <c r="L5" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="29">
+        <v>44074</v>
+      </c>
+      <c r="C6" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="30">
+        <v>CEP</v>
+      </c>
+      <c r="E6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
+        <v>New Link installation</v>
+      </c>
+      <c r="F6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="30">
+        <v>DHMDP30,DHMDP39</v>
+      </c>
+      <c r="G6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="31">
+      <c r="L6" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32C636F-F28C-4CD6-9F6B-070E322BFD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C0036D-DE40-4427-96FA-F9CB29575521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="1215" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change_List" sheetId="1" r:id="rId1"/>
@@ -1493,7 +1493,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,11 +1577,11 @@
       </c>
       <c r="G2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
+        <v>Service Effective</v>
       </c>
       <c r="H2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
+        <v>00:30 Minute</v>
       </c>
       <c r="I2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
@@ -1600,189 +1600,189 @@
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44074</v>
-      </c>
-      <c r="C3" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>CEP</v>
-      </c>
-      <c r="E3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>New Link installation</v>
-      </c>
-      <c r="F3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHBDDA7,DHTEJ15,DHTEJ07</v>
-      </c>
-      <c r="G3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H3" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I3" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J3" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>0</v>
       </c>
       <c r="K3" s="31"/>
-      <c r="L3" s="31" t="str">
+      <c r="L3" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44074</v>
-      </c>
-      <c r="C4" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
-      </c>
-      <c r="E4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>New Link installation</v>
-      </c>
-      <c r="F4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>BHCFN02,BHCFN26,BHLMN01,BHLMN15</v>
-      </c>
-      <c r="G4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Barisal</v>
-      </c>
-      <c r="J4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J4" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Barisal</v>
+        <v>0</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="L4" s="31" t="str">
+      <c r="L4" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44074</v>
-      </c>
-      <c r="C5" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C5" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
-      </c>
-      <c r="E5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Traffic Check for Traffic shiftng</v>
-      </c>
-      <c r="F5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>HGNBG28,HGNBG08</v>
-      </c>
-      <c r="G5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
-      </c>
-      <c r="J5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J5" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>0</v>
       </c>
       <c r="K5" s="31"/>
-      <c r="L5" s="31" t="str">
+      <c r="L5" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44074</v>
-      </c>
-      <c r="C6" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>CEP</v>
-      </c>
-      <c r="E6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>New Link installation</v>
-      </c>
-      <c r="F6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHMDP30,DHMDP39</v>
-      </c>
-      <c r="G6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J6" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>0</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="31" t="str">
+      <c r="L6" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C0036D-DE40-4427-96FA-F9CB29575521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A07BCFE-F11B-4669-BC6C-7DF42365D62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1177,8 +1177,8 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1493,7 +1493,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B2" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44074</v>
+        <v>44076</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -1565,15 +1565,15 @@
       </c>
       <c r="D2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
+        <v>NCCD AbisoIP</v>
       </c>
       <c r="E2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>New Link installation</v>
+        <v>Garbage E1 Deletetion</v>
       </c>
       <c r="F2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>MGSNG08,DHKGNT1</v>
+        <v>SYGLP01,SYBLG09,SYBLG04</v>
       </c>
       <c r="G2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -1585,11 +1585,11 @@
       </c>
       <c r="I2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
+        <v>Sylhet</v>
       </c>
       <c r="J2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka North</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="31" t="str">
@@ -1600,377 +1600,377 @@
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="29">
+        <v>44076</v>
+      </c>
+      <c r="C3" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="30">
+        <v>CEP</v>
+      </c>
+      <c r="E3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="30">
+        <v>New Link installation</v>
+      </c>
+      <c r="F3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="30">
+        <v>DHTEJ15,DHTEJ07</v>
+      </c>
+      <c r="G3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K3" s="31"/>
-      <c r="L3" s="31">
+      <c r="L3" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="29">
+        <v>44076</v>
+      </c>
+      <c r="C4" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="30">
+        <v>DHAKA_MODERNIZATION</v>
+      </c>
+      <c r="E4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="30">
+        <v>Rectification</v>
+      </c>
+      <c r="F4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="30">
+        <v>TNSKP18,TNMZP48</v>
+      </c>
+      <c r="G4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
+        <v>Mymensingh</v>
+      </c>
+      <c r="J4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Mymensingh</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="L4" s="31">
+      <c r="L4" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="29">
+        <v>44076</v>
+      </c>
+      <c r="C5" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
+        <v>Padma_Colo</v>
+      </c>
+      <c r="E5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
+        <v>New Link installation</v>
+      </c>
+      <c r="F5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="30">
+        <v>BHCFN02,BHCFN26,BHLMN01,BHLMN15</v>
+      </c>
+      <c r="G5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
+        <v>Barisal</v>
+      </c>
+      <c r="J5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Barisal</v>
       </c>
       <c r="K5" s="31"/>
-      <c r="L5" s="31">
+      <c r="L5" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="29">
+        <v>44076</v>
+      </c>
+      <c r="C6" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="30">
+        <v>DHAKA_MODERNIZATION</v>
+      </c>
+      <c r="E6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
+        <v>New Link installation</v>
+      </c>
+      <c r="F6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="30">
+        <v>MNLHG18,MNSRN18</v>
+      </c>
+      <c r="G6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka South</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="31">
+      <c r="L6" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="29">
+        <v>44076</v>
+      </c>
+      <c r="C7" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
+        <v>NCCD AbisoIP</v>
+      </c>
+      <c r="E7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
+        <v>Traffic Check for Traffic shiftng</v>
+      </c>
+      <c r="F7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="30">
+        <v>HGNBG28,HGNBG08</v>
+      </c>
+      <c r="G7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
+        <v>Sylhet</v>
+      </c>
+      <c r="J7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="31">
+      <c r="L7" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="29">
+        <v>44076</v>
+      </c>
+      <c r="C8" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="30">
+        <v>DHAKA_MODERNIZATION</v>
+      </c>
+      <c r="E8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
+        <v>HW upgradation</v>
+      </c>
+      <c r="F8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="30">
+        <v>GPSDR86,GPSDR42</v>
+      </c>
+      <c r="G8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka North</v>
       </c>
       <c r="K8" s="31"/>
-      <c r="L8" s="31">
+      <c r="L8" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="29">
+        <v>44076</v>
+      </c>
+      <c r="C9" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="30">
+        <v>KM Jiaul Islam Jibon</v>
+      </c>
+      <c r="D9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
+        <v>Dhaka-Modernization</v>
+      </c>
+      <c r="E9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
+        <v>FE Configuration</v>
+      </c>
+      <c r="F9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
+        <v>DHDHN45,DHKHL47,DHKHLA0,DHPTN29,DHRMN04,DHRMN16,DHRMN26,DHBDD78,DHGULF5,DHMDP01</v>
+      </c>
+      <c r="G9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K9" s="31"/>
-      <c r="L9" s="31">
+      <c r="L9" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="29">
+        <v>44076</v>
+      </c>
+      <c r="C10" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="30">
+        <v>KM Jiaul Islam Jibon</v>
+      </c>
+      <c r="D10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
+        <v>Dhaka-Modernization</v>
+      </c>
+      <c r="E10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
+        <v>FE Configuration</v>
+      </c>
+      <c r="F10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
+        <v>MGGHR11,MGSBL11,MGSTR01,MNLHG02,MNLHG17,GPSDRS5,MNSDR46,DHSVRG5</v>
+      </c>
+      <c r="G10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka North</v>
       </c>
       <c r="K10" s="31"/>
-      <c r="L10" s="31">
+      <c r="L10" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A07BCFE-F11B-4669-BC6C-7DF42365D62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB53C33-815A-4602-8D98-02FA7D734C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change_List" sheetId="1" r:id="rId1"/>
@@ -1177,8 +1177,8 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1493,7 +1493,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,23 +1557,23 @@
       </c>
       <c r="B2" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44076</v>
+        <v>44079</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
+        <v>Md. Shahadat Hossain</v>
       </c>
       <c r="D2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
+        <v>Padma_Colo</v>
       </c>
       <c r="E2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Garbage E1 Deletetion</v>
+        <v>CPRI Cable &amp; RRU Swap 1/1</v>
       </c>
       <c r="F2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYGLP01,SYBLG09,SYBLG04</v>
+        <v>SNCTK27</v>
       </c>
       <c r="G2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="H2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
+        <v>04:00 Hour</v>
       </c>
       <c r="I2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
@@ -1594,383 +1594,383 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>K.M Khairul Bashar</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44076</v>
-      </c>
-      <c r="C3" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>CEP</v>
-      </c>
-      <c r="E3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>New Link installation</v>
-      </c>
-      <c r="F3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHTEJ15,DHTEJ07</v>
-      </c>
-      <c r="G3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H3" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I3" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J3" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J3" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>0</v>
       </c>
       <c r="K3" s="31"/>
-      <c r="L3" s="31" t="str">
+      <c r="L3" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44076</v>
-      </c>
-      <c r="C4" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
-      </c>
-      <c r="E4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Rectification</v>
-      </c>
-      <c r="F4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>TNSKP18,TNMZP48</v>
-      </c>
-      <c r="G4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Mymensingh</v>
-      </c>
-      <c r="J4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J4" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Mymensingh</v>
+        <v>0</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="L4" s="31" t="str">
+      <c r="L4" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44076</v>
-      </c>
-      <c r="C5" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C5" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
-      </c>
-      <c r="E5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>New Link installation</v>
-      </c>
-      <c r="F5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>BHCFN02,BHCFN26,BHLMN01,BHLMN15</v>
-      </c>
-      <c r="G5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Barisal</v>
-      </c>
-      <c r="J5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J5" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Barisal</v>
+        <v>0</v>
       </c>
       <c r="K5" s="31"/>
-      <c r="L5" s="31" t="str">
+      <c r="L5" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44076</v>
-      </c>
-      <c r="C6" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
-      </c>
-      <c r="E6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>New Link installation</v>
-      </c>
-      <c r="F6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>MNLHG18,MNSRN18</v>
-      </c>
-      <c r="G6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J6" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J6" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka South</v>
+        <v>0</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="31" t="str">
+      <c r="L6" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44076</v>
-      </c>
-      <c r="C7" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
-      </c>
-      <c r="E7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Traffic Check for Traffic shiftng</v>
-      </c>
-      <c r="F7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>HGNBG28,HGNBG08</v>
-      </c>
-      <c r="G7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
-      </c>
-      <c r="J7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>0</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="31" t="str">
+      <c r="L7" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44076</v>
-      </c>
-      <c r="C8" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
-      </c>
-      <c r="E8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>HW upgradation</v>
-      </c>
-      <c r="F8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>GPSDR86,GPSDR42</v>
-      </c>
-      <c r="G8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G8" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I8" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J8" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J8" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka North</v>
+        <v>0</v>
       </c>
       <c r="K8" s="31"/>
-      <c r="L8" s="31" t="str">
+      <c r="L8" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44076</v>
-      </c>
-      <c r="C9" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon</v>
-      </c>
-      <c r="D9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Dhaka-Modernization</v>
-      </c>
-      <c r="E9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>FE Configuration</v>
-      </c>
-      <c r="F9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHDHN45,DHKHL47,DHKHLA0,DHPTN29,DHRMN04,DHRMN16,DHRMN26,DHBDD78,DHGULF5,DHMDP01</v>
-      </c>
-      <c r="G9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J9" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>0</v>
       </c>
       <c r="K9" s="31"/>
-      <c r="L9" s="31" t="str">
+      <c r="L9" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44076</v>
-      </c>
-      <c r="C10" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="C10" s="29">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon</v>
-      </c>
-      <c r="D10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Dhaka-Modernization</v>
-      </c>
-      <c r="E10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>FE Configuration</v>
-      </c>
-      <c r="F10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>MGGHR11,MGSBL11,MGSTR01,MNLHG02,MNLHG17,GPSDRS5,MNSDR46,DHSVRG5</v>
-      </c>
-      <c r="G10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G10" s="30">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I10" s="30">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J10" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka North</v>
+        <v>0</v>
       </c>
       <c r="K10" s="31"/>
-      <c r="L10" s="31" t="str">
+      <c r="L10" s="31">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB53C33-815A-4602-8D98-02FA7D734C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3847D56E-C634-4F14-9315-C98737E82744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1493,7 +1493,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B2" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44079</v>
+        <v>44093</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -1565,15 +1565,15 @@
       </c>
       <c r="D2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
+        <v>CC 4G Colocation Project</v>
       </c>
       <c r="E2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>CPRI Cable &amp; RRU Swap 1/1</v>
+        <v>GSM Antenna &amp; RRU Swap</v>
       </c>
       <c r="F2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SNCTK27</v>
+        <v>LXRGN14,LXRGN11,LXRGN33,LXRPR19</v>
       </c>
       <c r="G2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -1585,580 +1585,593 @@
       </c>
       <c r="I2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Noakhali</v>
       </c>
       <c r="J2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Noakhali</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>K.M Khairul Bashar</v>
+        <v>Faisal Mahmud Fuad</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="29">
+        <v>44093</v>
+      </c>
+      <c r="C3" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="30">
+        <v>Md. Shahadat Hossain</v>
+      </c>
+      <c r="D3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="30">
+        <v>CC 4G Colocation Project</v>
+      </c>
+      <c r="E3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="30">
+        <v>GSM Antenna &amp; RRU Swap</v>
+      </c>
+      <c r="F3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="30">
+        <v>BMAKH14,BMNBG17,BMNBG19,BMNBG23</v>
+      </c>
+      <c r="G3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="30">
+        <v>04:00 Hour</v>
+      </c>
+      <c r="I3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="30">
+        <v>Comilla</v>
+      </c>
+      <c r="J3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Comilla</v>
       </c>
       <c r="K3" s="31"/>
-      <c r="L3" s="31">
+      <c r="L3" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Faisal Mahmud Fuad</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="29">
+        <v>44093</v>
+      </c>
+      <c r="C4" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="30">
+        <v>Md. Rashekul Islam Raju</v>
+      </c>
+      <c r="D4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="30">
+        <v>MW antenna optimization</v>
+      </c>
+      <c r="E4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="30">
+        <v>MW antenna optimization</v>
+      </c>
+      <c r="F4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="30">
+        <v>DHKTL29, DHKTL62, DHPTN08, DHKHL74</v>
+      </c>
+      <c r="G4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
+        <v>00:45 Minute</v>
+      </c>
+      <c r="I4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="L4" s="31">
+      <c r="L4" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="29">
+        <v>44093</v>
+      </c>
+      <c r="C5" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="30">
+        <v>Prodip Biswas</v>
+      </c>
+      <c r="D5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
+        <v>L18CellAdd, Y2020</v>
+      </c>
+      <c r="E5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
+        <v>GSM &amp; RRU Swap</v>
+      </c>
+      <c r="F5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="30">
+        <v>   SYBNC02,MBKLR26</v>
+      </c>
+      <c r="G5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
+        <v>Sylhet</v>
+      </c>
+      <c r="J5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K5" s="31"/>
-      <c r="L5" s="31">
+      <c r="L5" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Sumon Kumar Biswas</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="29">
+        <v>44093</v>
+      </c>
+      <c r="C6" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="30">
+        <v>KM Jiaul Islam Jibon</v>
+      </c>
+      <c r="D6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="30">
+        <v>Dhaka-Modernization</v>
+      </c>
+      <c r="E6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
+        <v>FE Ping Test</v>
+      </c>
+      <c r="F6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="30">
+        <v>GPSDR76,GPSDRN0,MGSDR31,MNLHG11,MNSDR19,MNSDR28,MNSRN16,MNSRN17,GPKLK27,GPSDR61</v>
+      </c>
+      <c r="G6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka North</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="31">
+      <c r="L6" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="29">
+        <v>44093</v>
+      </c>
+      <c r="C7" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="30">
+        <v>KM Jiaul Islam Jibon</v>
+      </c>
+      <c r="D7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
+        <v>Dhaka-Modernization</v>
+      </c>
+      <c r="E7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
+        <v>FE Ping Test</v>
+      </c>
+      <c r="F7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="30">
+        <v>DHBDD05,DHDHN45,DHMJH47,DHPTN16,DHRMN36,DHBDD78,DHGULF5,DHMDP01,DHMDP05</v>
+      </c>
+      <c r="G7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="31">
+      <c r="L7" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="29">
+        <v>44093</v>
+      </c>
+      <c r="C8" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="30">
+        <v>KM Jiaul Islam Jibon</v>
+      </c>
+      <c r="D8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="30">
+        <v>Dhaka-Modernization</v>
+      </c>
+      <c r="E8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
+        <v>FE Ping Test</v>
+      </c>
+      <c r="F8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="30">
+        <v>TNGPL06</v>
+      </c>
+      <c r="G8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
+        <v>Mymensingh</v>
+      </c>
+      <c r="J8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Mymensingh</v>
       </c>
       <c r="K8" s="31"/>
-      <c r="L8" s="31">
+      <c r="L8" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="29">
+        <v>44093</v>
+      </c>
+      <c r="C9" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
+        <v>NCCD AbisoIP</v>
+      </c>
+      <c r="E9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
+        <v>Rectification</v>
+      </c>
+      <c r="F9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
+        <v>SYZKG15,SYZKG01</v>
+      </c>
+      <c r="G9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="30">
+        <v>Sylhet</v>
+      </c>
+      <c r="J9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K9" s="31"/>
-      <c r="L9" s="31">
+      <c r="L9" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="29">
+        <v>44093</v>
+      </c>
+      <c r="C10" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
+        <v>DHAKA_MODERNIZATION</v>
+      </c>
+      <c r="E10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
+        <v>DCN Configure</v>
+      </c>
+      <c r="F10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
+        <v>NGARH26,NGARH09</v>
+      </c>
+      <c r="G10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="30">
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka South</v>
       </c>
       <c r="K10" s="31"/>
-      <c r="L10" s="31">
+      <c r="L10" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="29">
+        <v>44093</v>
+      </c>
+      <c r="C11" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D11" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="30">
+        <v>DHAKA_MODERNIZATION</v>
+      </c>
+      <c r="E11" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="30">
+        <v>Link ID:DH07E18275
+Link Name:MNLHG18-MNSRN18
+DCN Impact:MNLHG18-EMTN-02,MNLHG18-EMTN-01,MNLHG02-EMTN-01,MNLHG08-EMTN-01,MNLHG18-EMTN-03,MNSRN18-EMTN-02
+DCN Path:MNSRN18-MNLHG18-MNLHG02,MNLHG08
+Impact List:MNLHG18,MNSRN18</v>
+      </c>
+      <c r="F11" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="30">
+        <v>MNLHG18,MNSRN18</v>
+      </c>
+      <c r="G11" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H11" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I11" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J11" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka South</v>
       </c>
       <c r="K11" s="32"/>
-      <c r="L11" s="31">
+      <c r="L11" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="29">
+        <v>44093</v>
+      </c>
+      <c r="C12" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D12" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="30">
+        <v>DHAKA_MODERNIZATION</v>
+      </c>
+      <c r="E12" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="30">
+        <v>New link installation</v>
+      </c>
+      <c r="F12" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="30">
+        <v>GPKLG05,GPSDR06,DHKHGT1,MGSNG08</v>
+      </c>
+      <c r="G12" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H12" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I12" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="30">
+        <v>Dhaka</v>
+      </c>
+      <c r="J12" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Dhaka North</v>
       </c>
       <c r="K12" s="32"/>
-      <c r="L12" s="31">
+      <c r="L12" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="29">
+        <v>44093</v>
+      </c>
+      <c r="C13" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D13" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
+        <v>Padma_Colo</v>
+      </c>
+      <c r="E13" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
+        <v>MW Dismantle activity
+Link ID:SY07H30744
+Link Name:SNDKS01-SNDRI01
+DCN Impact:SNDKS01-HRTN-01,SNDKS01-HRTN-02,SNDKS01-HRTN-03,SNDRI01-HRTN01
+DCN Path:SNJML02-SNDKS01-SNDRI05
+Impact list:SNDKS01,SNDRI01,SNDRI10</v>
+      </c>
+      <c r="F13" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="30">
+        <v>SNDKS01,SNDRI01</v>
+      </c>
+      <c r="G13" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H13" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I13" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="30">
+        <v>Sylhet</v>
+      </c>
+      <c r="J13" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K13" s="32"/>
-      <c r="L13" s="31">
+      <c r="L13" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="29">
+        <v>44093</v>
+      </c>
+      <c r="C14" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="30">
+        <v>Md. Masudur Rahman</v>
+      </c>
+      <c r="D14" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="30">
+        <v>Padma_Colo</v>
+      </c>
+      <c r="E14" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="30">
+        <v>MW Dismantle activity
+Link ID:SY07H30739
+Link Name:SNDRI01-SNDRI10
+DCN Impact: SNDRI01-HRTN01,SNDRI01-HRTN02
+DCN Path:SNDRI01-SNDRI10</v>
+      </c>
+      <c r="F14" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="30">
+        <v>SNDRI01,SNDRI10</v>
+      </c>
+      <c r="G14" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="30">
+        <v>Service Effective</v>
+      </c>
+      <c r="H14" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="30">
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I14" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="30">
+        <v>Sylhet</v>
+      </c>
+      <c r="J14" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K14" s="32"/>
-      <c r="L14" s="31">
+      <c r="L14" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3847D56E-C634-4F14-9315-C98737E82744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC97BCA1-3FDC-4B9C-9115-1D27FF21FF53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1493,7 +1493,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,44 +1557,44 @@
       </c>
       <c r="B2" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Shahadat Hossain</v>
+        <v>Md. Rashekul Islam Raju</v>
       </c>
       <c r="D2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>CC 4G Colocation Project</v>
+        <v>MW antenna optimization</v>
       </c>
       <c r="E2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>GSM Antenna &amp; RRU Swap</v>
+        <v>MW antenna optimization</v>
       </c>
       <c r="F2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>LXRGN14,LXRGN11,LXRGN33,LXRPR19</v>
+        <v>DHGUL11, DHGUL26, DHGUL74</v>
       </c>
       <c r="G2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
+        <v>Non-Service Effective</v>
       </c>
       <c r="H2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>04:00 Hour</v>
+        <v>00:45 Minute</v>
       </c>
       <c r="I2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Noakhali</v>
+        <v>Dhaka</v>
       </c>
       <c r="J2" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Noakhali</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Faisal Mahmud Fuad</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1604,23 +1604,23 @@
       </c>
       <c r="B3" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="C3" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Shahadat Hossain</v>
+        <v>Prodip Biswas</v>
       </c>
       <c r="D3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>CC 4G Colocation Project</v>
+        <v>L18CellAdd, Y2020</v>
       </c>
       <c r="E3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>GSM Antenna &amp; RRU Swap</v>
+        <v>GSM &amp; RRU Swap</v>
       </c>
       <c r="F3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>BMAKH14,BMNBG17,BMNBG19,BMNBG23</v>
+        <v>   MBKLR26, SYBLG20</v>
       </c>
       <c r="G3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -1628,20 +1628,20 @@
       </c>
       <c r="H3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>04:00 Hour</v>
+        <v>00:30 Minute</v>
       </c>
       <c r="I3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Comilla</v>
+        <v>Sylhet</v>
       </c>
       <c r="J3" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Comilla</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Faisal Mahmud Fuad</v>
+        <v>Sumon Kumar Biswas</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="B4" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Rashekul Islam Raju</v>
+        <v>Md. Masudur Rahman</v>
       </c>
       <c r="D4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>MW antenna optimization</v>
+        <v>NCCD AbisoIP</v>
       </c>
       <c r="E4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>MW antenna optimization</v>
+        <v>Rectification</v>
       </c>
       <c r="F4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHKTL29, DHKTL62, DHPTN08, DHKHL74</v>
+        <v>SYZKG15,SYZKG01</v>
       </c>
       <c r="G4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
+        <v>Service Effective</v>
       </c>
       <c r="H4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:45 Minute</v>
+        <v>00:30 Minute</v>
       </c>
       <c r="I4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
+        <v>Sylhet</v>
       </c>
       <c r="J4" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31" t="str">
@@ -1698,44 +1698,44 @@
       </c>
       <c r="B5" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="C5" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Prodip Biswas</v>
+        <v>Md. Masudur Rahman</v>
       </c>
       <c r="D5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>L18CellAdd, Y2020</v>
+        <v>DHAKA_MODERNIZATION</v>
       </c>
       <c r="E5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>GSM &amp; RRU Swap</v>
+        <v>DCN Configure</v>
       </c>
       <c r="F5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>   SYBNC02,MBKLR26</v>
+        <v>NGARH26,NGARH09,NGSNG11,NGSNG20</v>
       </c>
       <c r="G5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
+        <v>Non-Service Effective</v>
       </c>
       <c r="H5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
+        <v>00:00 Minute</v>
       </c>
       <c r="I5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Dhaka</v>
       </c>
       <c r="J5" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Dhaka South</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Sumon Kumar Biswas</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1745,39 +1745,39 @@
       </c>
       <c r="B6" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="C6" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon</v>
+        <v>Md. Masudur Rahman</v>
       </c>
       <c r="D6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Dhaka-Modernization</v>
+        <v>DHAKA_MODERNIZATION</v>
       </c>
       <c r="E6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>FE Ping Test</v>
+        <v>Rectification for XPIC allignment</v>
       </c>
       <c r="F6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>GPSDR76,GPSDRN0,MGSDR31,MNLHG11,MNSDR19,MNSDR28,MNSRN16,MNSRN17,GPKLK27,GPSDR61</v>
+        <v>TNGPL01,TNGTL27</v>
       </c>
       <c r="G6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
+        <v>Service Effective</v>
       </c>
       <c r="H6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
+        <v>00:30 Minute</v>
       </c>
       <c r="I6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
+        <v>Mymensingh</v>
       </c>
       <c r="J6" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka North</v>
+        <v>e.co_Mymensingh</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31" t="str">
@@ -1792,23 +1792,23 @@
       </c>
       <c r="B7" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon</v>
+        <v>Md. Masudur Rahman</v>
       </c>
       <c r="D7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Dhaka-Modernization</v>
+        <v>DHAKA_MODERNIZATION</v>
       </c>
       <c r="E7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>FE Ping Test</v>
+        <v>Ne link installation</v>
       </c>
       <c r="F7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHBDD05,DHDHN45,DHMJH47,DHPTN16,DHRMN36,DHBDD78,DHGULF5,DHMDP01,DHMDP05</v>
+        <v>GPKLG05,GPSDR06,DHKHGT1,MGSNG08</v>
       </c>
       <c r="G7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="J7" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>e.co_Dhaka North</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="31" t="str">
@@ -1839,23 +1839,28 @@
       </c>
       <c r="B8" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="C8" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon</v>
+        <v>Md. Masudur Rahman</v>
       </c>
       <c r="D8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Dhaka-Modernization</v>
+        <v>Padma_Colo</v>
       </c>
       <c r="E8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>FE Ping Test</v>
+        <v>MW Dismantle activity
+Link ID:SY13H31786
+Link Name:SYBNB22-SYBNB26
+DCN Impact:SYBNB26-EMTN-01,SYBNB22-EMTN-01,SYBNB22-EMTN-01,SYBNB29-EMTN-01
+DCN Path:SYBNB26-SYBNB22-SYBNB05-SYBNB29
+Impact list:SYBNB22,SYBNB26</v>
       </c>
       <c r="F8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>TNGPL06</v>
+        <v>SYBNB22,SYBNB26</v>
       </c>
       <c r="G8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -1867,11 +1872,11 @@
       </c>
       <c r="I8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Mymensingh</v>
+        <v>Sylhet</v>
       </c>
       <c r="J8" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Mymensingh</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="31" t="str">
@@ -1886,7 +1891,7 @@
       </c>
       <c r="B9" s="28">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="C9" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -1894,253 +1899,9 @@
       </c>
       <c r="D9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
+        <v>Padma_Colo</v>
       </c>
       <c r="E9" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Rectification</v>
-      </c>
-      <c r="F9" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYZKG15,SYZKG01</v>
-      </c>
-      <c r="G9" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H9" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I9" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
-      </c>
-      <c r="J9" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>9</v>
-      </c>
-      <c r="B10" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44093</v>
-      </c>
-      <c r="C10" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
-      </c>
-      <c r="E10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>DCN Configure</v>
-      </c>
-      <c r="F10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>NGARH26,NGARH09</v>
-      </c>
-      <c r="G10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka South</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44093</v>
-      </c>
-      <c r="C11" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
-      </c>
-      <c r="E11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Link ID:DH07E18275
-Link Name:MNLHG18-MNSRN18
-DCN Impact:MNLHG18-EMTN-02,MNLHG18-EMTN-01,MNLHG02-EMTN-01,MNLHG08-EMTN-01,MNLHG18-EMTN-03,MNSRN18-EMTN-02
-DCN Path:MNSRN18-MNLHG18-MNLHG02,MNLHG08
-Impact List:MNLHG18,MNSRN18</v>
-      </c>
-      <c r="F11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>MNLHG18,MNSRN18</v>
-      </c>
-      <c r="G11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka South</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>11</v>
-      </c>
-      <c r="B12" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44093</v>
-      </c>
-      <c r="C12" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
-      </c>
-      <c r="E12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>New link installation</v>
-      </c>
-      <c r="F12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>GPKLG05,GPSDR06,DHKHGT1,MGSNG08</v>
-      </c>
-      <c r="G12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka North</v>
-      </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>12</v>
-      </c>
-      <c r="B13" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44093</v>
-      </c>
-      <c r="C13" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D13" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
-      </c>
-      <c r="E13" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>MW Dismantle activity
-Link ID:SY07H30744
-Link Name:SNDKS01-SNDRI01
-DCN Impact:SNDKS01-HRTN-01,SNDKS01-HRTN-02,SNDKS01-HRTN-03,SNDRI01-HRTN01
-DCN Path:SNJML02-SNDKS01-SNDRI05
-Impact list:SNDKS01,SNDRI01,SNDRI10</v>
-      </c>
-      <c r="F13" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SNDKS01,SNDRI01</v>
-      </c>
-      <c r="G13" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H13" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I13" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
-      </c>
-      <c r="J13" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>13</v>
-      </c>
-      <c r="B14" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44093</v>
-      </c>
-      <c r="C14" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D14" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
-      </c>
-      <c r="E14" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
         <v>MW Dismantle activity
 Link ID:SY07H30739
@@ -2148,30 +1909,265 @@
 DCN Impact: SNDRI01-HRTN01,SNDRI01-HRTN02
 DCN Path:SNDRI01-SNDRI10</v>
       </c>
-      <c r="F14" s="30" t="str">
+      <c r="F9" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
         <v>SNDRI01,SNDRI10</v>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G9" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H9" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I9" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Sylhet</v>
+      </c>
+      <c r="J9" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Sylhet</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="28">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44095</v>
+      </c>
+      <c r="C10" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>KM Jiaul Islam Jibon</v>
+      </c>
+      <c r="D10" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>Dhaka-Modernization</v>
+      </c>
+      <c r="E10" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>FE Configuration</v>
+      </c>
+      <c r="F10" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>MGDLP08</v>
+      </c>
+      <c r="G10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
         <v>Service Effective</v>
       </c>
-      <c r="H14" s="30" t="str">
+      <c r="H10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
         <v>00:30 Minute</v>
       </c>
-      <c r="I14" s="30" t="str">
+      <c r="I10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
-      </c>
-      <c r="J14" s="30" t="str">
+        <v>Dhaka</v>
+      </c>
+      <c r="J10" s="30" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
-      </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="31" t="str">
+        <v>e.co_Dhaka North</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
         <v>Muhammad Shahed</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="28">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44095</v>
+      </c>
+      <c r="C11" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Shahadat Hossain</v>
+      </c>
+      <c r="D11" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>CC 4G Colocation Project</v>
+      </c>
+      <c r="E11" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>GSM Antenna &amp; RRU Swap</v>
+      </c>
+      <c r="F11" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>LXRGN14,LXRGN11,LXRPR19</v>
+      </c>
+      <c r="G11" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Service Effective</v>
+      </c>
+      <c r="H11" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>04:00 Hour</v>
+      </c>
+      <c r="I11" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Noakhali</v>
+      </c>
+      <c r="J11" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Noakhali</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="31" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Faisal Mahmud Fuad</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="28">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44095</v>
+      </c>
+      <c r="C12" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Shahadat Hossain</v>
+      </c>
+      <c r="D12" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>CC 4G Colocation Project</v>
+      </c>
+      <c r="E12" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>GSM Antenna &amp; RRU Swap</v>
+      </c>
+      <c r="F12" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>BMNBG17,BMNBG19</v>
+      </c>
+      <c r="G12" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Service Effective</v>
+      </c>
+      <c r="H12" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>04:00 Hour</v>
+      </c>
+      <c r="I12" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Comilla</v>
+      </c>
+      <c r="J12" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Comilla</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="31" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Faisal Mahmud Fuad</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="28">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="29">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="30">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="30">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="30">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="30">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="32"/>
+      <c r="L13" s="31">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="28">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="29">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="30">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="30">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="32"/>
+      <c r="L14" s="31">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC97BCA1-3FDC-4B9C-9115-1D27FF21FF53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20FBD3E-282E-4297-841C-37E9BD41A9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,12 +406,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,8 +565,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -580,29 +574,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,42 +596,51 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="30">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -659,8 +650,9 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -700,6 +692,43 @@
         <scheme val="minor"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFFFF"/>
@@ -711,6 +740,79 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -736,6 +838,45 @@
         <scheme val="minor"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFFFF"/>
@@ -774,6 +915,45 @@
         <scheme val="minor"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFFFF"/>
@@ -812,9 +992,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -845,6 +1025,84 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -887,6 +1145,45 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFFFF"/>
@@ -925,6 +1222,45 @@
         <scheme val="minor"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFFFF"/>
@@ -963,11 +1299,44 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1000,11 +1369,49 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1033,8 +1440,14 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1045,8 +1458,37 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1065,6 +1507,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1084,6 +1532,41 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1112,6 +1595,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1137,9 +1626,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1185,45 +1674,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L21" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:L21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L51" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" totalsRowDxfId="25" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+  <autoFilter ref="A1:L51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>[1]!Table1[[#This Row],[No]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Date" dataDxfId="10">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Date" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>[1]!Table1[[#This Row],[Date]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Project Coordinator" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Project Coordinator" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>[1]!Table1[[#This Row],[Project Coordinator]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Project Name" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Project Name" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>[1]!Table1[[#This Row],[Project Name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Change Activity" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Change Activity" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>[1]!Table1[[#This Row],[Change Activity]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Impact Site List" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Impact Site List" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>[1]!Table1[[#This Row],[Impact Site List]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Service Type" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Service Type" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>[1]!Table1[[#This Row],[Service Type]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Down Time" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Down Time" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>[1]!Table1[[#This Row],[Down Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Site Group" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Site Group" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>[1]!Table1[[#This Row],[Site Group]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Commercial Zone" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Commercial Zone" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>[1]!Table1[[#This Row],[Commercial Zone]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="NCR Number" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Change Manager" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="NCR Number" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Change Manager" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>[1]!Table1[[#This Row],[Change Manager]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1490,1011 +1979,2417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="26" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.7109375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="26"/>
+    <col min="12" max="12" width="17.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <f>[1]!Table1[[#This Row],[No]]</f>
         <v>1</v>
       </c>
-      <c r="B2" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44095</v>
-      </c>
-      <c r="C2" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Rashekul Islam Raju</v>
-      </c>
-      <c r="D2" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>MW antenna optimization</v>
-      </c>
-      <c r="E2" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>MW antenna optimization</v>
-      </c>
-      <c r="F2" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHGUL11, DHGUL26, DHGUL74</v>
-      </c>
-      <c r="G2" s="30" t="str">
+      <c r="B2" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C2" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Sobuz Ahmed_01841122538</v>
+      </c>
+      <c r="D2" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>NCCD AbisoIP</v>
+      </c>
+      <c r="E2" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>E1 deletion &amp; Collect BTS Cable</v>
+      </c>
+      <c r="F2" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>SYKNG16,SYKNG07,SYGLP08</v>
+      </c>
+      <c r="G2" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
         <v>Non-Service Effective</v>
       </c>
-      <c r="H2" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:45 Minute</v>
-      </c>
-      <c r="I2" s="30" t="str">
+      <c r="H2" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I2" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Sylhet</v>
+      </c>
+      <c r="J2" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Sylhet</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C3" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>KM Jiaul Islam Jibon_01847188948</v>
+      </c>
+      <c r="D3" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>NCCD AbisoIP P3</v>
+      </c>
+      <c r="E3" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>E2E Lease Site Ping Test 1/1</v>
+      </c>
+      <c r="F3" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>FPSDR04,FPSDR05,FPSDR09,RJPNG19</v>
+      </c>
+      <c r="G3" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Service Effective</v>
+      </c>
+      <c r="H3" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I3" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Kustia</v>
+      </c>
+      <c r="J3" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Kustia</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C4" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Prodip Biswas_01841133479</v>
+      </c>
+      <c r="D4" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>L18CellAdd, Y2020</v>
+      </c>
+      <c r="E4" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Jumper Cable Change 1/1</v>
+      </c>
+      <c r="F4" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>HGMDB19, MBJRI14, BMSDR24, BMSRL10</v>
+      </c>
+      <c r="G4" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Service Effective</v>
+      </c>
+      <c r="H4" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I4" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Sylhet</v>
+      </c>
+      <c r="J4" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Sylhet</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Sumon Kumar Biswas</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C5" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Prodip Biswas_01841133479</v>
+      </c>
+      <c r="D5" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>L18CellAdd, Y2020</v>
+      </c>
+      <c r="E5" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Take Print Screen from MBB</v>
+      </c>
+      <c r="F5" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>BMNBG30,BMNNG05,BMNNG09,BMSDR54,BMSRL08,HGAZM09,MBSML28,SYBLG30</v>
+      </c>
+      <c r="G5" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H5" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I5" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Sylhet</v>
+      </c>
+      <c r="J5" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Sylhet</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Sumon Kumar Biswas</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C6" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Prodip Biswas_01841133479</v>
+      </c>
+      <c r="D6" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>L18CellAdd, Y2020</v>
+      </c>
+      <c r="E6" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Take Print Screen from MBB</v>
+      </c>
+      <c r="F6" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>SYBSW17,SYDKS18,SYDKS21,SYGLP20,SYGLP21,SYGWN13,SYGWN19SYJNT08</v>
+      </c>
+      <c r="G6" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H6" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I6" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Sylhet</v>
+      </c>
+      <c r="J6" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Sylhet</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Sumon Kumar Biswas</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C7" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Prodip Biswas_01841133479</v>
+      </c>
+      <c r="D7" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>L18CellAdd, Y2020</v>
+      </c>
+      <c r="E7" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Take Print Screen from MBB</v>
+      </c>
+      <c r="F7" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>SYKNG03,SYKNG04,SYKNG12,BMNBG21,SYCMP09</v>
+      </c>
+      <c r="G7" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H7" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I7" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Sylhet</v>
+      </c>
+      <c r="J7" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Sylhet</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Sumon Kumar Biswas</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C8" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Shafiqur Rahman_01841122531</v>
+      </c>
+      <c r="D8" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>Relocation</v>
+      </c>
+      <c r="E8" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>FE Configure, Site name change</v>
+      </c>
+      <c r="F8" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>DHTIA08,DHSBG28</v>
+      </c>
+      <c r="G8" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Service Effective</v>
+      </c>
+      <c r="H8" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
         <v>Dhaka</v>
       </c>
-      <c r="J2" s="30" t="str">
+      <c r="J8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
         <v>e.co_Dhaka Metro</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31" t="str">
+      <c r="K8" s="29"/>
+      <c r="L8" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
         <v>Muhammad Shahed</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44095</v>
-      </c>
-      <c r="C3" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Prodip Biswas</v>
-      </c>
-      <c r="D3" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>L18CellAdd, Y2020</v>
-      </c>
-      <c r="E3" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>GSM &amp; RRU Swap</v>
-      </c>
-      <c r="F3" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>   MBKLR26, SYBLG20</v>
-      </c>
-      <c r="G3" s="30" t="str">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C9" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D9" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>Padma_Colo</v>
+      </c>
+      <c r="E9" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Slot Remove for alarm clear</v>
+      </c>
+      <c r="F9" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>SYGWN03,SYJNT08,SYJNT02</v>
+      </c>
+      <c r="G9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
         <v>Service Effective</v>
       </c>
-      <c r="H3" s="30" t="str">
+      <c r="H9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
         <v>00:30 Minute</v>
       </c>
-      <c r="I3" s="30" t="str">
+      <c r="I9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
         <v>Sylhet</v>
       </c>
-      <c r="J3" s="30" t="str">
+      <c r="J9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
         <v>e.co_Sylhet</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Sumon Kumar Biswas</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44095</v>
-      </c>
-      <c r="C4" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D4" s="30" t="str">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C10" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D10" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>DHAKA_MODERNIZATION</v>
+      </c>
+      <c r="E10" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Rectification</v>
+      </c>
+      <c r="F10" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>NKKND02,MYISG02</v>
+      </c>
+      <c r="G10" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Service Effective</v>
+      </c>
+      <c r="H10" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I10" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Mymensingh</v>
+      </c>
+      <c r="J10" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Mymensingh</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C11" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D11" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>Padma_Colo</v>
+      </c>
+      <c r="E11" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Rectification 1/1</v>
+      </c>
+      <c r="F11" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>SYKNG05,SYSDR26,SYJNT03,SYJNT08</v>
+      </c>
+      <c r="G11" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Service Effective</v>
+      </c>
+      <c r="H11" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I11" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Sylhet</v>
+      </c>
+      <c r="J11" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Sylhet</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C12" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D12" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>DHAKA_MODERNIZATION</v>
+      </c>
+      <c r="E12" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Dismantle Materials Return</v>
+      </c>
+      <c r="F12" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>DHDHM33,DHDHM36,MNSNG08</v>
+      </c>
+      <c r="G12" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H12" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I12" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Dhaka</v>
+      </c>
+      <c r="J12" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Dhaka North</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C13" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D13" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>Finito</v>
+      </c>
+      <c r="E13" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Rectification</v>
+      </c>
+      <c r="F13" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>DHDHN41,DHTEJ23,DHTIA09,DHRMN05</v>
+      </c>
+      <c r="G13" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Service Effective</v>
+      </c>
+      <c r="H13" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I13" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Dhaka</v>
+      </c>
+      <c r="J13" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Dhaka Metro</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C14" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D14" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>Padma_Colo</v>
+      </c>
+      <c r="E14" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>MW Dismantle
+Link ID:SY07H30759
+Link Name:SYJNT03-SYGWN03
+DCN Impact :SYJNT03-HRTN-02,SYJNT03-HRTN-03,SYJNT08-HRTN-01,SYGWN03-HRTN-02
+DCN Route:SYGWN03-SYJNT03-SYJNT08
+WO0000000162410</v>
+      </c>
+      <c r="F14" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>SYJNT03,SYGWN03</v>
+      </c>
+      <c r="G14" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H14" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I14" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Sylhet</v>
+      </c>
+      <c r="J14" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Sylhet</v>
+      </c>
+      <c r="K14" s="30"/>
+      <c r="L14" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C15" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
         <v>NCCD AbisoIP</v>
       </c>
-      <c r="E4" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Rectification</v>
-      </c>
-      <c r="F4" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYZKG15,SYZKG01</v>
-      </c>
-      <c r="G4" s="30" t="str">
+      <c r="E15" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Slot Remove for alarm clear</v>
+      </c>
+      <c r="F15" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>SYBNB42</v>
+      </c>
+      <c r="G15" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H15" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I15" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Sylhet</v>
+      </c>
+      <c r="J15" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Sylhet</v>
+      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C16" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D16" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>NCCD AbisoIP</v>
+      </c>
+      <c r="E16" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Traffic Shifting 1/1</v>
+      </c>
+      <c r="F16" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>TNNGP12,TNKLH04,JPISL14,SRSDR07</v>
+      </c>
+      <c r="G16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
         <v>Service Effective</v>
       </c>
-      <c r="H4" s="30" t="str">
+      <c r="H16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
         <v>00:30 Minute</v>
       </c>
-      <c r="I4" s="30" t="str">
+      <c r="I16" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Mymensingh</v>
+      </c>
+      <c r="J16" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Mymensingh</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C17" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D17" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>DHAKA_MODERNIZATION</v>
+      </c>
+      <c r="E17" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Dismantle Materials Return</v>
+      </c>
+      <c r="F17" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>DHKGNT1,MNLHG18,MNSRN18,MNSRK13,MNSRK16,NGSNG11,NGSNG20</v>
+      </c>
+      <c r="G17" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H17" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I17" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Dhaka</v>
+      </c>
+      <c r="J17" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Dhaka South</v>
+      </c>
+      <c r="K17" s="30"/>
+      <c r="L17" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>44137</v>
+      </c>
+      <c r="C18" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D18" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>Padma_Colo</v>
+      </c>
+      <c r="E18" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Traffic shifting 1/1</v>
+      </c>
+      <c r="F18" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>MBJRI11,MBJRI10</v>
+      </c>
+      <c r="G18" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Service Effective</v>
+      </c>
+      <c r="H18" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
         <v>Sylhet</v>
       </c>
-      <c r="J4" s="30" t="str">
+      <c r="J18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
         <v>e.co_Sylhet</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31" t="str">
+      <c r="K18" s="30"/>
+      <c r="L18" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
         <v>Muhammad Shahed</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44095</v>
-      </c>
-      <c r="C5" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D5" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
-      </c>
-      <c r="E5" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>DCN Configure</v>
-      </c>
-      <c r="F5" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>NGARH26,NGARH09,NGSNG11,NGSNG20</v>
-      </c>
-      <c r="G5" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H5" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I5" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J5" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka South</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>5</v>
-      </c>
-      <c r="B6" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44095</v>
-      </c>
-      <c r="C6" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D6" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
-      </c>
-      <c r="E6" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Rectification for XPIC allignment</v>
-      </c>
-      <c r="F6" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>TNGPL01,TNGTL27</v>
-      </c>
-      <c r="G6" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H6" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I6" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Mymensingh</v>
-      </c>
-      <c r="J6" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Mymensingh</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>6</v>
-      </c>
-      <c r="B7" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44095</v>
-      </c>
-      <c r="C7" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D7" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
-      </c>
-      <c r="E7" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Ne link installation</v>
-      </c>
-      <c r="F7" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>GPKLG05,GPSDR06,DHKHGT1,MGSNG08</v>
-      </c>
-      <c r="G7" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H7" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I7" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J7" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka North</v>
-      </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>7</v>
-      </c>
-      <c r="B8" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44095</v>
-      </c>
-      <c r="C8" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D8" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
-      </c>
-      <c r="E8" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>MW Dismantle activity
-Link ID:SY13H31786
-Link Name:SYBNB22-SYBNB26
-DCN Impact:SYBNB26-EMTN-01,SYBNB22-EMTN-01,SYBNB22-EMTN-01,SYBNB29-EMTN-01
-DCN Path:SYBNB26-SYBNB22-SYBNB05-SYBNB29
-Impact list:SYBNB22,SYBNB26</v>
-      </c>
-      <c r="F8" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYBNB22,SYBNB26</v>
-      </c>
-      <c r="G8" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H8" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I8" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
-      </c>
-      <c r="J8" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
-      </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>8</v>
-      </c>
-      <c r="B9" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44095</v>
-      </c>
-      <c r="C9" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman</v>
-      </c>
-      <c r="D9" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
-      </c>
-      <c r="E9" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>MW Dismantle activity
-Link ID:SY07H30739
-Link Name:SNDRI01-SNDRI10
-DCN Impact: SNDRI01-HRTN01,SNDRI01-HRTN02
-DCN Path:SNDRI01-SNDRI10</v>
-      </c>
-      <c r="F9" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SNDRI01,SNDRI10</v>
-      </c>
-      <c r="G9" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
-      </c>
-      <c r="H9" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
-      </c>
-      <c r="I9" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
-      </c>
-      <c r="J9" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>9</v>
-      </c>
-      <c r="B10" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44095</v>
-      </c>
-      <c r="C10" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon</v>
-      </c>
-      <c r="D10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Dhaka-Modernization</v>
-      </c>
-      <c r="E10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>FE Configuration</v>
-      </c>
-      <c r="F10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>MGDLP08</v>
-      </c>
-      <c r="G10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
-      </c>
-      <c r="I10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
-      </c>
-      <c r="J10" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka North</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44095</v>
-      </c>
-      <c r="C11" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Shahadat Hossain</v>
-      </c>
-      <c r="D11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>CC 4G Colocation Project</v>
-      </c>
-      <c r="E11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>GSM Antenna &amp; RRU Swap</v>
-      </c>
-      <c r="F11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>LXRGN14,LXRGN11,LXRPR19</v>
-      </c>
-      <c r="G11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>04:00 Hour</v>
-      </c>
-      <c r="I11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Noakhali</v>
-      </c>
-      <c r="J11" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Noakhali</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Faisal Mahmud Fuad</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>11</v>
-      </c>
-      <c r="B12" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44095</v>
-      </c>
-      <c r="C12" s="29" t="str">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Shahadat Hossain</v>
-      </c>
-      <c r="D12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>CC 4G Colocation Project</v>
-      </c>
-      <c r="E12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>GSM Antenna &amp; RRU Swap</v>
-      </c>
-      <c r="F12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>BMNBG17,BMNBG19</v>
-      </c>
-      <c r="G12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
-      </c>
-      <c r="H12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>04:00 Hour</v>
-      </c>
-      <c r="I12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Comilla</v>
-      </c>
-      <c r="J12" s="30" t="str">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Comilla</v>
-      </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="31" t="str">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Faisal Mahmud Fuad</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="29">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="30">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="30">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="30">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="30">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="31">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B14" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="29">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="30">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="30">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="30">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="30">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="30">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="30">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="30">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="31">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="29">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="30">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="30">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="30">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="30">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="30">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="30">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="30">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="31">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B16" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="29">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="30">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="30">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="30">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="30">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="30">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="30">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="30">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="31">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B17" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="29">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="30">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="30">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="30">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="30">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="30">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="30">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="30">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="31">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B18" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="29">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="30">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="30">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="30">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="30">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="30">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="30">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="30">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="31">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B19" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="29">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="30">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="30">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="30">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="30">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="30">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="30">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="30">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="31">
+      <c r="A19" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="28">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="28">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="29">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B20" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="29">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="30">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="30">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="30">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="30">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="30">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="30">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="30">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="31">
+      <c r="A20" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="28">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="29">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B21" s="28">
-        <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="29">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="30">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="30">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="30">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="30">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="30">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="30">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="30">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="31">
+      <c r="A21" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="28">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="28">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="29">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B30" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B40" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B41" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B42" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B43" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B44" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B45" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B46" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B47" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B48" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B49" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B50" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="26">
+        <f>[1]!Table1[[#This Row],[No]]</f>
+        <v>0</v>
+      </c>
+      <c r="B51" s="27">
+        <f>[1]!Table1[[#This Row],[Date]]</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="28">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="28">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="28">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="32">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="28">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="26">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="28">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="28">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
         <v>0</v>
       </c>
@@ -2599,14 +4494,14 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="13" t="str">
         <f>""&amp;A2</f>
         <v>DHGUL10</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="33">
         <v>44016</v>
       </c>
       <c r="D2" s="8">
@@ -2619,7 +4514,7 @@
       <c r="F2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="18" t="s">
         <v>57</v>
       </c>
       <c r="P2" s="5" t="s">
@@ -2663,14 +4558,14 @@
       </c>
     </row>
     <row r="3" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="13" t="str">
         <f>B2&amp;","&amp;A3</f>
         <v>DHGUL10,DHGUL74</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="8">
         <v>0.45833333333333331</v>
       </c>
@@ -2681,7 +4576,7 @@
       <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="18" t="s">
         <v>58</v>
       </c>
       <c r="P3" s="5" t="s">
@@ -2707,14 +4602,14 @@
       <c r="AE3" s="15"/>
     </row>
     <row r="4" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="13" t="str">
         <f t="shared" ref="B4:B10" si="0">B3&amp;","&amp;A4</f>
         <v>DHGUL10,DHGUL74,DHGUL76</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="8">
         <v>0.4861111111111111</v>
       </c>
@@ -2725,7 +4620,7 @@
       <c r="F4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="18" t="s">
         <v>59</v>
       </c>
       <c r="P4" s="5"/>
@@ -2749,14 +4644,14 @@
       <c r="AE4" s="15"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>DHGUL10,DHGUL74,DHGUL76,DHMRP28</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="8">
         <v>0.70833333333333337</v>
       </c>
@@ -2767,7 +4662,7 @@
       <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="18" t="s">
         <v>60</v>
       </c>
       <c r="P5" s="5"/>
@@ -2776,14 +4671,14 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>DHGUL10,DHGUL74,DHGUL76,DHMRP28,DHPLB19</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="8">
         <v>0.75</v>
       </c>
@@ -2794,7 +4689,7 @@
       <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="18" t="s">
         <v>61</v>
       </c>
       <c r="P6" s="5"/>
@@ -2808,7 +4703,7 @@
         <f t="shared" si="0"/>
         <v>DHGUL10,DHGUL74,DHGUL76,DHMRP28,DHPLB19,</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="18" t="s">
         <v>62</v>
       </c>
       <c r="P7" s="5"/>
@@ -2822,8 +4717,8 @@
         <f t="shared" si="0"/>
         <v>DHGUL10,DHGUL74,DHGUL76,DHMRP28,DHPLB19,,</v>
       </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="5" t="s">
         <v>53</v>
       </c>
@@ -2834,8 +4729,8 @@
         <f t="shared" si="0"/>
         <v>DHGUL10,DHGUL74,DHGUL76,DHMRP28,DHPLB19,,,</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="5" t="s">
         <v>54</v>
       </c>
@@ -2849,7 +4744,7 @@
       <c r="O10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="23"/>
+      <c r="P10" s="19"/>
       <c r="Q10" s="5" t="s">
         <v>55</v>
       </c>
@@ -2860,41 +4755,41 @@
         <f>B10&amp;","&amp;A11</f>
         <v>DHGUL10,DHGUL74,DHGUL76,DHMRP28,DHPLB19,,,,,</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O14" s="24" t="s">
+      <c r="O14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="U14" s="20"/>
-      <c r="V14" s="21"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="17"/>
     </row>
     <row r="15" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="U15" s="20"/>
-      <c r="V15" s="21"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="17"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O16" s="24" t="s">
+      <c r="O16" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O17" s="24"/>
+      <c r="O17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20FBD3E-282E-4297-841C-37E9BD41A9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8ACD67-499A-42EC-B0D7-385F3850ECF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B2" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C2" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="F2" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYKNG16,SYKNG07,SYGLP08</v>
+        <v>SYBNB21,SYBNB30,SYBNB34</v>
       </c>
       <c r="G2" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2093,39 +2093,39 @@
       </c>
       <c r="B3" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>KM Jiaul Islam Jibon_01847188948</v>
+        <v>Sobuz Ahmed_01841122538</v>
       </c>
       <c r="D3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP P3</v>
+        <v>NCCD AbisoIP</v>
       </c>
       <c r="E3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>E2E Lease Site Ping Test 1/1</v>
+        <v>E1 deletion &amp; Collect BTS Cable</v>
       </c>
       <c r="F3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>FPSDR04,FPSDR05,FPSDR09,RJPNG19</v>
+        <v>SYSDRD2,SYSDRD3,SYSDRB8,SYSDRA2</v>
       </c>
       <c r="G3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
+        <v>Non-Service Effective</v>
       </c>
       <c r="H3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
+        <v>00:00 Minute</v>
       </c>
       <c r="I3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Kustia</v>
+        <v>Sylhet</v>
       </c>
       <c r="J3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Kustia</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29" t="str">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B4" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C4" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="F4" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>HGMDB19, MBJRI14, BMSDR24, BMSRL10</v>
+        <v>MBKML11, MBSML14, BMSDR24, BMSRL10</v>
       </c>
       <c r="G4" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2187,44 +2187,44 @@
       </c>
       <c r="B5" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Prodip Biswas_01841133479</v>
+        <v>Md. Masudur Rahman_01841122536</v>
       </c>
       <c r="D5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>L18CellAdd, Y2020</v>
+        <v>DHAKA_MODERNIZATION</v>
       </c>
       <c r="E5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Take Print Screen from MBB</v>
+        <v>Rectification</v>
       </c>
       <c r="F5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>BMNBG30,BMNNG05,BMNNG09,BMSDR54,BMSRL08,HGAZM09,MBSML28,SYBLG30</v>
+        <v>NKKND02,MYISG02</v>
       </c>
       <c r="G5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
+        <v>Service Effective</v>
       </c>
       <c r="H5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
+        <v>00:30 Minute</v>
       </c>
       <c r="I5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Mymensingh</v>
       </c>
       <c r="J5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Mymensingh</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Sumon Kumar Biswas</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2234,31 +2234,31 @@
       </c>
       <c r="B6" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Prodip Biswas_01841133479</v>
+        <v>Md. Masudur Rahman_01841122536</v>
       </c>
       <c r="D6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>L18CellAdd, Y2020</v>
+        <v>Padma_Colo</v>
       </c>
       <c r="E6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Take Print Screen from MBB</v>
+        <v>Rectification 1/1</v>
       </c>
       <c r="F6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYBSW17,SYDKS18,SYDKS21,SYGLP20,SYGLP21,SYGWN13,SYGWN19SYJNT08</v>
+        <v>SYKNG05,SYSDR26,SYJNT03,SYJNT08,SYJNT02</v>
       </c>
       <c r="G6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
+        <v>Service Effective</v>
       </c>
       <c r="H6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
+        <v>00:30 Minute</v>
       </c>
       <c r="I6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
@@ -2271,7 +2271,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Sumon Kumar Biswas</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2281,23 +2281,23 @@
       </c>
       <c r="B7" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Prodip Biswas_01841133479</v>
+        <v>Md. Masudur Rahman_01841122536</v>
       </c>
       <c r="D7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>L18CellAdd, Y2020</v>
+        <v>DHAKA_MODERNIZATION</v>
       </c>
       <c r="E7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Take Print Screen from MBB</v>
+        <v>Dismantle Materials Return</v>
       </c>
       <c r="F7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYKNG03,SYKNG04,SYKNG12,BMNBG21,SYCMP09</v>
+        <v>DHDHM33,DHDHM36,MNSNG08</v>
       </c>
       <c r="G7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2309,16 +2309,16 @@
       </c>
       <c r="I7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Dhaka</v>
       </c>
       <c r="J7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Dhaka North</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Sumon Kumar Biswas</v>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2328,23 +2328,23 @@
       </c>
       <c r="B8" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Shafiqur Rahman_01841122531</v>
+        <v>Md. Masudur Rahman_01841122536</v>
       </c>
       <c r="D8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Relocation</v>
+        <v>Finito</v>
       </c>
       <c r="E8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>FE Configure, Site name change</v>
+        <v>Rectification</v>
       </c>
       <c r="F8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHTIA08,DHSBG28</v>
+        <v>DHDHN41,DHTEJ23,DHTIA09,DHRMN05</v>
       </c>
       <c r="G8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B9" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -2383,23 +2383,23 @@
       </c>
       <c r="D9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
+        <v>NCCD AbisoIP</v>
       </c>
       <c r="E9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Slot Remove for alarm clear</v>
+        <v>Return Dismantle Materials</v>
       </c>
       <c r="F9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYGWN03,SYJNT08,SYJNT02</v>
+        <v>SYSDRD4,SYSDR34,SYGWN03,SYGWN05,SYJNT03,SYJNT08,SYGWN01,SYDKS28,SYGLP01</v>
       </c>
       <c r="G9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
+        <v>Non-Service Effective</v>
       </c>
       <c r="H9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
+        <v>00:00 Minute</v>
       </c>
       <c r="I9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B10" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C10" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -2430,31 +2430,31 @@
       </c>
       <c r="D10" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
+        <v>NCCD AbisoIP</v>
       </c>
       <c r="E10" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Rectification</v>
+        <v>Slot Remove for alarm clear</v>
       </c>
       <c r="F10" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>NKKND02,MYISG02</v>
+        <v>SYBNB42</v>
       </c>
       <c r="G10" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
+        <v>Non-Service Effective</v>
       </c>
       <c r="H10" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
+        <v>00:00 Minute</v>
       </c>
       <c r="I10" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Mymensingh</v>
+        <v>Sylhet</v>
       </c>
       <c r="J10" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Mymensingh</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29" t="str">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B11" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -2477,15 +2477,15 @@
       </c>
       <c r="D11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
+        <v>NCCD AbisoIP</v>
       </c>
       <c r="E11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Rectification 1/1</v>
+        <v>Traffic Shifting 1/1</v>
       </c>
       <c r="F11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYKNG05,SYSDR26,SYJNT03,SYJNT08</v>
+        <v>TNNGP12,TNKLH04,JPISL14,SRSDR07</v>
       </c>
       <c r="G11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2497,11 +2497,11 @@
       </c>
       <c r="I11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Mymensingh</v>
       </c>
       <c r="J11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Mymensingh</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="29" t="str">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B12" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C12" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="F12" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHDHM33,DHDHM36,MNSNG08</v>
+        <v>DHKGNT1,MNLHG18,MNSRN18,MNSRK13,MNSRK16,NGSNG11,NGSNG20</v>
       </c>
       <c r="G12" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="J12" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka North</v>
+        <v>e.co_Dhaka South</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="29" t="str">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B13" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -2571,15 +2571,15 @@
       </c>
       <c r="D13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Finito</v>
+        <v>Padma_Colo</v>
       </c>
       <c r="E13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Rectification</v>
+        <v>Traffic shifting 1/1</v>
       </c>
       <c r="F13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHDHN41,DHTEJ23,DHTIA09,DHRMN05</v>
+        <v>MBJRI11,MBJRI10</v>
       </c>
       <c r="G13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2591,11 +2591,11 @@
       </c>
       <c r="I13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
+        <v>Sylhet</v>
       </c>
       <c r="J13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K13" s="30"/>
       <c r="L13" s="29" t="str">
@@ -2610,28 +2610,23 @@
       </c>
       <c r="B14" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C14" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>Md. Rashekul Islam Raju_01841133472</v>
       </c>
       <c r="D14" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
+        <v>MW antenna optimization</v>
       </c>
       <c r="E14" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>MW Dismantle
-Link ID:SY07H30759
-Link Name:SYJNT03-SYGWN03
-DCN Impact :SYJNT03-HRTN-02,SYJNT03-HRTN-03,SYJNT08-HRTN-01,SYGWN03-HRTN-02
-DCN Route:SYGWN03-SYJNT03-SYJNT08
-WO0000000162410</v>
+        <v>MW  Inactive antenna Dismantle</v>
       </c>
       <c r="F14" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYJNT03,SYGWN03</v>
+        <v>HGSDR02</v>
       </c>
       <c r="G14" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2662,39 +2657,39 @@
       </c>
       <c r="B15" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>Md. Rashekul Islam Raju_01841133472</v>
       </c>
       <c r="D15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
+        <v>Y2020 Capacity Expansion Cell Split</v>
       </c>
       <c r="E15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Slot Remove for alarm clear</v>
+        <v>GSM antenna  Swap by10Port ANT</v>
       </c>
       <c r="F15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYBNB42</v>
+        <v>NGSNG63, NGSNG68</v>
       </c>
       <c r="G15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
+        <v>Service Effective</v>
       </c>
       <c r="H15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
+        <v>00:45 Minute</v>
       </c>
       <c r="I15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Dhaka</v>
       </c>
       <c r="J15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Dhaka South</v>
       </c>
       <c r="K15" s="30"/>
       <c r="L15" s="29" t="str">
@@ -2709,23 +2704,23 @@
       </c>
       <c r="B16" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>Md. Rashekul Islam Raju_01841133472</v>
       </c>
       <c r="D16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
+        <v>GSM antenna optimization</v>
       </c>
       <c r="E16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Traffic Shifting 1/1</v>
+        <v xml:space="preserve">GSM antenna  Swap </v>
       </c>
       <c r="F16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>TNNGP12,TNKLH04,JPISL14,SRSDR07</v>
+        <v>                                  SYZKG14</v>
       </c>
       <c r="G16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2733,15 +2728,15 @@
       </c>
       <c r="H16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
+        <v>00:45 Minute</v>
       </c>
       <c r="I16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Mymensingh</v>
+        <v>Sylhet</v>
       </c>
       <c r="J16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Mymensingh</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K16" s="30"/>
       <c r="L16" s="29" t="str">
@@ -2756,31 +2751,31 @@
       </c>
       <c r="B17" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>Md. Rashekul Islam Raju_01841133472</v>
       </c>
       <c r="D17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
+        <v>GSM antenna optimization</v>
       </c>
       <c r="E17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Dismantle Materials Return</v>
+        <v xml:space="preserve">GSM antenna  Swap </v>
       </c>
       <c r="F17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHKGNT1,MNLHG18,MNSRN18,MNSRK13,MNSRK16,NGSNG11,NGSNG20</v>
+        <v>DHTIA01,DHGULD9</v>
       </c>
       <c r="G17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
+        <v>Service Effective</v>
       </c>
       <c r="H17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
+        <v>00:45 Minute</v>
       </c>
       <c r="I17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
@@ -2788,7 +2783,7 @@
       </c>
       <c r="J17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka South</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="29" t="str">
@@ -2803,39 +2798,39 @@
       </c>
       <c r="B18" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>Md. Rashekul Islam Raju_01841133472</v>
       </c>
       <c r="D18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
+        <v>MW antenna optimization</v>
       </c>
       <c r="E18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Traffic shifting 1/1</v>
+        <v>MW  Inactive antenna Dismantle</v>
       </c>
       <c r="F18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>MBJRI11,MBJRI10</v>
+        <v>DHKHL26,DHKHL74</v>
       </c>
       <c r="G18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
+        <v>Non-Service Effective</v>
       </c>
       <c r="H18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
+        <v>00:00 Minute</v>
       </c>
       <c r="I18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Dhaka</v>
       </c>
       <c r="J18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="29" t="str">

--- a/data_driver/Change_Requirement.xlsx
+++ b/data_driver/Change_Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8ACD67-499A-42EC-B0D7-385F3850ECF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642CC553-617D-4A03-B074-185FE9CD6A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1982,7 +1982,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,39 +2046,39 @@
       </c>
       <c r="B2" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C2" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Sobuz Ahmed_01841122538</v>
+        <v>Md. Rashekul Islam Raju_01841133472</v>
       </c>
       <c r="D2" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
+        <v>Y2020 Capacity Expansion Cell Split</v>
       </c>
       <c r="E2" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>E1 deletion &amp; Collect BTS Cable</v>
+        <v>GSM antenna  Swap by10Port ANT</v>
       </c>
       <c r="F2" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYBNB21,SYBNB30,SYBNB34</v>
+        <v>NGSDRM0,NGSNG63, NGSNG68</v>
       </c>
       <c r="G2" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
+        <v>Service Effective</v>
       </c>
       <c r="H2" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
+        <v>00:45 Minute</v>
       </c>
       <c r="I2" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Dhaka</v>
       </c>
       <c r="J2" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Dhaka South</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="29" t="str">
@@ -2093,39 +2093,39 @@
       </c>
       <c r="B3" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Sobuz Ahmed_01841122538</v>
+        <v>Md. Rashekul Islam Raju_01841133472</v>
       </c>
       <c r="D3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
+        <v>GSM antenna optimization</v>
       </c>
       <c r="E3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>E1 deletion &amp; Collect BTS Cable</v>
+        <v xml:space="preserve">GSM antenna  Swap </v>
       </c>
       <c r="F3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYSDRD2,SYSDRD3,SYSDRB8,SYSDRA2</v>
+        <v>DHTIA01</v>
       </c>
       <c r="G3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
+        <v>Service Effective</v>
       </c>
       <c r="H3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
+        <v>00:45 Minute</v>
       </c>
       <c r="I3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Dhaka</v>
       </c>
       <c r="J3" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29" t="str">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B4" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C4" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="F4" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>MBKML11, MBSML14, BMSDR24, BMSRL10</v>
+        <v>BMJRI14, BMNNG14, BMASG05, BMSRL10</v>
       </c>
       <c r="G4" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2187,23 +2187,23 @@
       </c>
       <c r="B5" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>Prodip Biswas_01841133479</v>
       </c>
       <c r="D5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
+        <v>L18CellAdd, Y2020</v>
       </c>
       <c r="E5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Rectification</v>
+        <v>Jumper Cable Change 1/1</v>
       </c>
       <c r="F5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>NKKND02,MYISG02</v>
+        <v>BMJRI14, BMNNG14, BMASG05, BMSRL10</v>
       </c>
       <c r="G5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2215,16 +2215,16 @@
       </c>
       <c r="I5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Mymensingh</v>
+        <v>Sylhet</v>
       </c>
       <c r="J5" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Mymensingh</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>Sumon Kumar Biswas</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2234,31 +2234,31 @@
       </c>
       <c r="B6" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>Sobuz Ahmed_01841122538</v>
       </c>
       <c r="D6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
+        <v>NCCD AbisoIP</v>
       </c>
       <c r="E6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Rectification 1/1</v>
+        <v>E1 deletion &amp; Collect BTS Cable</v>
       </c>
       <c r="F6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYKNG05,SYSDR26,SYJNT03,SYJNT08,SYJNT02</v>
+        <v>SYBNB21,SYBNB30,SYBNB34</v>
       </c>
       <c r="G6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
+        <v>Non-Service Effective</v>
       </c>
       <c r="H6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
+        <v>00:00 Minute</v>
       </c>
       <c r="I6" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
@@ -2281,23 +2281,23 @@
       </c>
       <c r="B7" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>Sobuz Ahmed_01841122538</v>
       </c>
       <c r="D7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
+        <v>NCCD AbisoIP</v>
       </c>
       <c r="E7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Dismantle Materials Return</v>
+        <v>E1 deletion &amp; Collect BTS Cable</v>
       </c>
       <c r="F7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHDHM33,DHDHM36,MNSNG08</v>
+        <v>SYSDRD2,SYSDRD3,SYSDRB8,SYSDRA2</v>
       </c>
       <c r="G7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2309,11 +2309,11 @@
       </c>
       <c r="I7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
+        <v>Sylhet</v>
       </c>
       <c r="J7" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka North</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29" t="str">
@@ -2328,23 +2328,23 @@
       </c>
       <c r="B8" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>Prodip Biswas_01841133479</v>
       </c>
       <c r="D8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Finito</v>
+        <v>2G Colocation</v>
       </c>
       <c r="E8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Rectification</v>
+        <v>GSM Swap 1/1</v>
       </c>
       <c r="F8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHDHN41,DHTEJ23,DHTIA09,DHRMN05</v>
+        <v>CMSDRA2</v>
       </c>
       <c r="G8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2356,16 +2356,16 @@
       </c>
       <c r="I8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
+        <v>Comilla</v>
       </c>
       <c r="J8" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>e.co_Comilla</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>Faisal Mahmud Fuad</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2375,23 +2375,23 @@
       </c>
       <c r="B9" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>KM Jiaul Islam Jibon_01847188948</v>
       </c>
       <c r="D9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
+        <v>BP 2020 Rollout</v>
       </c>
       <c r="E9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Return Dismantle Materials</v>
+        <v>FE Configuration &amp; Electrical Patching</v>
       </c>
       <c r="F9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYSDRD4,SYSDR34,SYGWN03,SYGWN05,SYJNT03,SYJNT08,SYGWN01,SYDKS28,SYGLP01</v>
+        <v>BHLMN15,PTDMN01</v>
       </c>
       <c r="G9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2403,11 +2403,11 @@
       </c>
       <c r="I9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Barisal</v>
       </c>
       <c r="J9" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Barisal</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="str">
@@ -2422,23 +2422,23 @@
       </c>
       <c r="B10" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C10" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>KM Jiaul Islam Jibon_01847188948</v>
       </c>
       <c r="D10" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
+        <v>NCCD AbisoIP P3</v>
       </c>
       <c r="E10" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Slot Remove for alarm clear</v>
+        <v>FE Configuration &amp; Electrical Patching</v>
       </c>
       <c r="F10" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>SYBNB42</v>
+        <v>HGMDB23,SYBLG02,SYBNB33,SYJNT03</v>
       </c>
       <c r="G10" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2469,31 +2469,31 @@
       </c>
       <c r="B11" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>KM Jiaul Islam Jibon_01847188948</v>
       </c>
       <c r="D11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>NCCD AbisoIP</v>
+        <v>NCCD AbisoIP P3</v>
       </c>
       <c r="E11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Traffic Shifting 1/1</v>
+        <v>FE Configuration &amp; Electrical Patching</v>
       </c>
       <c r="F11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>TNNGP12,TNKLH04,JPISL14,SRSDR07</v>
+        <v>MYFLP03,MYISG01/MYISG17</v>
       </c>
       <c r="G11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
+        <v>Non-Service Effective</v>
       </c>
       <c r="H11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:30 Minute</v>
+        <v>00:00 Minute</v>
       </c>
       <c r="I11" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
@@ -2516,23 +2516,23 @@
       </c>
       <c r="B12" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C12" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>KM Jiaul Islam Jibon_01847188948</v>
       </c>
       <c r="D12" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>DHAKA_MODERNIZATION</v>
+        <v>BP 2020 Rollout</v>
       </c>
       <c r="E12" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Dismantle Materials Return</v>
+        <v xml:space="preserve">Remote FE Configuration </v>
       </c>
       <c r="F12" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHKGNT1,MNLHG18,MNSRN18,MNSRK13,MNSRK16,NGSNG11,NGSNG20</v>
+        <v>MDSHB32,SPDMD11,NSSDR70,HGLKH08,BMSRL27,JSMNR23,JSMNR21,SYJNT20,BMSDR98</v>
       </c>
       <c r="G12" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2548,12 +2548,12 @@
       </c>
       <c r="J12" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka South</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="29" t="str">
         <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>Muhammad Shahed</v>
+        <v>K.M Khairul Bashar</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2563,23 +2563,23 @@
       </c>
       <c r="B13" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Masudur Rahman_01841122536</v>
+        <v>Md. Shafiqur Rahman_01841122531</v>
       </c>
       <c r="D13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Padma_Colo</v>
+        <v>Relocation</v>
       </c>
       <c r="E13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>Traffic shifting 1/1</v>
+        <v>RAU change</v>
       </c>
       <c r="F13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>MBJRI11,MBJRI10</v>
+        <v>DHSBG28</v>
       </c>
       <c r="G13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2591,11 +2591,11 @@
       </c>
       <c r="I13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Dhaka</v>
       </c>
       <c r="J13" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K13" s="30"/>
       <c r="L13" s="29" t="str">
@@ -2610,39 +2610,39 @@
       </c>
       <c r="B14" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C14" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Rashekul Islam Raju_01841133472</v>
+        <v>Md. Masudur Rahman_01841122536</v>
       </c>
       <c r="D14" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>MW antenna optimization</v>
+        <v>DHAKA_MODERNIZATION</v>
       </c>
       <c r="E14" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>MW  Inactive antenna Dismantle</v>
+        <v>PAT activity</v>
       </c>
       <c r="F14" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>HGSDR02</v>
+        <v>NKKND02,MYISG02</v>
       </c>
       <c r="G14" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Non-Service Effective</v>
+        <v>Service Effective</v>
       </c>
       <c r="H14" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:00 Minute</v>
+        <v>00:30 Minute</v>
       </c>
       <c r="I14" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Mymensingh</v>
       </c>
       <c r="J14" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Mymensingh</v>
       </c>
       <c r="K14" s="30"/>
       <c r="L14" s="29" t="str">
@@ -2657,23 +2657,23 @@
       </c>
       <c r="B15" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Rashekul Islam Raju_01841133472</v>
+        <v>Md. Masudur Rahman_01841122536</v>
       </c>
       <c r="D15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>Y2020 Capacity Expansion Cell Split</v>
+        <v>Padma_Colo</v>
       </c>
       <c r="E15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>GSM antenna  Swap by10Port ANT</v>
+        <v>Rectification 1/1</v>
       </c>
       <c r="F15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>NGSNG63, NGSNG68</v>
+        <v>SYKNG05,SYSDR26,SYJNT03,SYJNT08,SYJNT02,SYBNB42</v>
       </c>
       <c r="G15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2681,15 +2681,15 @@
       </c>
       <c r="H15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:45 Minute</v>
+        <v>00:30 Minute</v>
       </c>
       <c r="I15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
+        <v>Sylhet</v>
       </c>
       <c r="J15" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka South</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K15" s="30"/>
       <c r="L15" s="29" t="str">
@@ -2704,23 +2704,23 @@
       </c>
       <c r="B16" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Rashekul Islam Raju_01841133472</v>
+        <v>Md. Masudur Rahman_01841122536</v>
       </c>
       <c r="D16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>GSM antenna optimization</v>
+        <v>Finito</v>
       </c>
       <c r="E16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v xml:space="preserve">GSM antenna  Swap </v>
+        <v>Rectification</v>
       </c>
       <c r="F16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>                                  SYZKG14</v>
+        <v>DHDHN41,DHTEJ23,DHTIA09,DHRMN05</v>
       </c>
       <c r="G16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2728,15 +2728,15 @@
       </c>
       <c r="H16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:45 Minute</v>
+        <v>00:30 Minute</v>
       </c>
       <c r="I16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Sylhet</v>
+        <v>Dhaka</v>
       </c>
       <c r="J16" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Sylhet</v>
+        <v>e.co_Dhaka Metro</v>
       </c>
       <c r="K16" s="30"/>
       <c r="L16" s="29" t="str">
@@ -2751,39 +2751,39 @@
       </c>
       <c r="B17" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Rashekul Islam Raju_01841133472</v>
+        <v>Md. Masudur Rahman_01841122536</v>
       </c>
       <c r="D17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>GSM antenna optimization</v>
+        <v>NCCD AbisoIP</v>
       </c>
       <c r="E17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v xml:space="preserve">GSM antenna  Swap </v>
+        <v>Return Dismantle Materials</v>
       </c>
       <c r="F17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHTIA01,DHGULD9</v>
+        <v>SYSDRD4,SYSDR34,SYGWN03,SYGWN05,SYJNT03,SYJNT08,SYGWN01,SYDKS28,SYGLP01</v>
       </c>
       <c r="G17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>Service Effective</v>
+        <v>Non-Service Effective</v>
       </c>
       <c r="H17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>00:45 Minute</v>
+        <v>00:00 Minute</v>
       </c>
       <c r="I17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
+        <v>Sylhet</v>
       </c>
       <c r="J17" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="29" t="str">
@@ -2798,23 +2798,23 @@
       </c>
       <c r="B18" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>Md. Rashekul Islam Raju_01841133472</v>
+        <v>Md. Masudur Rahman_01841122536</v>
       </c>
       <c r="D18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>MW antenna optimization</v>
+        <v>NCCD AbisoIP</v>
       </c>
       <c r="E18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>MW  Inactive antenna Dismantle</v>
+        <v>Slot Remove for alarm clear</v>
       </c>
       <c r="F18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>DHKHL26,DHKHL74</v>
+        <v>SYBNB42</v>
       </c>
       <c r="G18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Service Type]]</f>
@@ -2826,11 +2826,11 @@
       </c>
       <c r="I18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>Dhaka</v>
+        <v>Sylhet</v>
       </c>
       <c r="J18" s="28" t="str">
         <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>e.co_Dhaka Metro</v>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="29" t="str">
@@ -2841,189 +2841,198 @@
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="28">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="28">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="28">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="28">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="28">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="28">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="28">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="28">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>44139</v>
+      </c>
+      <c r="C19" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D19" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>DHAKA_MODERNIZATION</v>
+      </c>
+      <c r="E19" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Traffic Shifting 1/1</v>
+      </c>
+      <c r="F19" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>TNNGP12,TNKLH04,TNGPL14,TNDBR08</v>
+      </c>
+      <c r="G19" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Service Effective</v>
+      </c>
+      <c r="H19" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I19" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Mymensingh</v>
+      </c>
+      <c r="J19" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Mymensingh</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="29">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+      <c r="L19" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="28">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="28">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="28">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="28">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="28">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="28">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="28">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="28">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>44139</v>
+      </c>
+      <c r="C20" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D20" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>DHAKA_MODERNIZATION</v>
+      </c>
+      <c r="E20" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>MW dismantle
+Link ID:MY18H30906
+Link Name:TNNGP12-TNKLH04
+DCN Impact:TNNGP12-EMTN-01
+DCN Path:TNKLH04-TNNGP12</v>
+      </c>
+      <c r="F20" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>TNNGP12,TNKLH04</v>
+      </c>
+      <c r="G20" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H20" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I20" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Mymensingh</v>
+      </c>
+      <c r="J20" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Mymensingh</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="29">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+      <c r="L20" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="28">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="28">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="28">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="28">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="28">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="28">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="28">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="28">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>44139</v>
+      </c>
+      <c r="C21" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D21" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>Padma_Colo</v>
+      </c>
+      <c r="E21" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>Traffic shifting 1/1</v>
+      </c>
+      <c r="F21" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>MBJRI11,MBJRI10</v>
+      </c>
+      <c r="G21" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Service Effective</v>
+      </c>
+      <c r="H21" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:30 Minute</v>
+      </c>
+      <c r="I21" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Sylhet</v>
+      </c>
+      <c r="J21" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Sylhet</v>
       </c>
       <c r="K21" s="31"/>
-      <c r="L21" s="29">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+      <c r="L21" s="29" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <f>[1]!Table1[[#This Row],[No]]</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="27">
         <f>[1]!Table1[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="28">
-        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="28">
-        <f>[1]!Table1[[#This Row],[Project Name]]</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="28">
-        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="32">
-        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="28">
-        <f>[1]!Table1[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="26">
-        <f>[1]!Table1[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="28">
-        <f>[1]!Table1[[#This Row],[Site Group]]</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="28">
-        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>44139</v>
+      </c>
+      <c r="C22" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Coordinator]]</f>
+        <v>Md. Masudur Rahman_01841122536</v>
+      </c>
+      <c r="D22" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Project Name]]</f>
+        <v>DHAKA_MODERNIZATION</v>
+      </c>
+      <c r="E22" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Change Activity]]</f>
+        <v>MW dismantle
+Link ID:MY11H30951
+Link Name:TNGPL14-TNDBR08
+DCN Impact:TNGPL14-EMTN-01
+DCN Path:TNGPL14-TNDBR08
+WO not Require Only Slot Removal</v>
+      </c>
+      <c r="F22" s="32" t="str">
+        <f>[1]!Table1[[#This Row],[Impact Site List]]</f>
+        <v>TNGPL14,TNDBR08</v>
+      </c>
+      <c r="G22" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Service Type]]</f>
+        <v>Non-Service Effective</v>
+      </c>
+      <c r="H22" s="26" t="str">
+        <f>[1]!Table1[[#This Row],[Down Time]]</f>
+        <v>00:00 Minute</v>
+      </c>
+      <c r="I22" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Site Group]]</f>
+        <v>Mymensingh</v>
+      </c>
+      <c r="J22" s="28" t="str">
+        <f>[1]!Table1[[#This Row],[Commercial Zone]]</f>
+        <v>e.co_Mymensingh</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="30">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+      <c r="L22" s="30" t="str">
+        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
+        <v>Muhammad Shahed</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
